--- a/Work-Management/設計書.xlsx
+++ b/Work-Management/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/mysite/Work-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F19973-306E-C242-8490-ECB37F3835BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43117704-EE66-D74C-8B8F-D638E490F895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{F4DB06B3-98AF-B14D-8403-C7A21CEB5F87}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{F4DB06B3-98AF-B14D-8403-C7A21CEB5F87}"/>
   </bookViews>
   <sheets>
     <sheet name="設計書" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="211">
   <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
@@ -1191,31 +1191,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>休暇種類</t>
-    <rPh sb="0" eb="4">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>期間</t>
-    <rPh sb="0" eb="2">
-      <t>キカn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>YYYYMMDD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全日</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンニティ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>休暇登録</t>
     <rPh sb="0" eb="2">
       <t>キュウ</t>
@@ -1290,16 +1265,6 @@
     <t>慶弔休暇</t>
     <rPh sb="0" eb="4">
       <t>ケイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「期間」入力エリア</t>
-    <rPh sb="1" eb="3">
-      <t>キカn</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1436,19 +1401,6 @@
     <t>「登録」メッセージ</t>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>登録完了した旨を知らせる。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シラセ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1578,20 +1530,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>leave_cd</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>休暇区分</t>
-    <rPh sb="0" eb="2">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>appl_date</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1617,12 +1555,158 @@
     <t>leave_ptn</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>休暇区分を選択するエリア。</t>
+    <rPh sb="0" eb="4">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全日</t>
+    <rPh sb="0" eb="1">
+      <t>ゼn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="1">
+      <t>ゴゼn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="1">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>leave_msg</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇メッセージ</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01:年次有給
+02:産前休暇
+03:産後休暇
+04:育児休暇
+05:誕生日休暇
+06:慶弔休暇
+07:リフレッシュ休暇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇種類</t>
+    <rPh sb="0" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>leave_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇①</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇②</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「休暇パターン」プルダウン</t>
+    <rPh sb="1" eb="3">
+      <t>キュウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※１日に申請できる休暇は２件まで。</t>
+    <rPh sb="1" eb="2">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　午前+午後は可能だが、それ以外の複合申請は不可。</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録完了もしくはエラーが発生した場合に表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1794,6 +1878,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2472,7 +2564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,6 +2961,12 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2902,11 +3000,14 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2966,7 +3067,7 @@
         <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3121,7 @@
         <xdr:cNvPr id="41" name="正方形/長方形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3181,7 @@
         <xdr:cNvPr id="54" name="正方形/長方形 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3241,7 @@
         <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3296,7 @@
         <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3356,7 @@
         <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3410,7 @@
         <xdr:cNvPr id="71" name="正方形/長方形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3470,7 @@
         <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3423,7 +3524,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3578,7 @@
         <xdr:cNvPr id="93" name="カギ線コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3633,7 @@
         <xdr:cNvPr id="100" name="テキスト ボックス 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3714,7 @@
         <xdr:cNvPr id="101" name="正方形/長方形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3774,7 @@
         <xdr:cNvPr id="102" name="テキスト ボックス 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3754,7 +3855,7 @@
         <xdr:cNvPr id="103" name="カギ線コネクタ 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,7 +3910,7 @@
         <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +3964,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,7 +4018,7 @@
         <xdr:cNvPr id="121" name="グループ化 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3936,7 +4037,7 @@
           <xdr:cNvPr id="111" name="正方形/長方形 110">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3981,7 +4082,7 @@
           <xdr:cNvPr id="113" name="直線コネクタ 112">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4021,7 +4122,7 @@
           <xdr:cNvPr id="115" name="直線コネクタ 114">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4061,7 +4162,7 @@
           <xdr:cNvPr id="116" name="直線コネクタ 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4117,7 +4218,7 @@
         <xdr:cNvPr id="122" name="円/楕円 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4291,7 @@
         <xdr:cNvPr id="123" name="円/楕円 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4263,7 +4364,7 @@
         <xdr:cNvPr id="124" name="円/楕円 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4352,7 +4453,7 @@
         <xdr:cNvPr id="125" name="円/楕円 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4542,7 @@
         <xdr:cNvPr id="150" name="図 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4480,7 +4581,7 @@
         <xdr:cNvPr id="151" name="図 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,7 +4620,7 @@
         <xdr:cNvPr id="152" name="図 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4558,7 +4659,7 @@
         <xdr:cNvPr id="153" name="図 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4698,7 @@
         <xdr:cNvPr id="154" name="図 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4636,7 +4737,7 @@
         <xdr:cNvPr id="155" name="図 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,7 +4776,7 @@
         <xdr:cNvPr id="156" name="図 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4714,7 +4815,7 @@
         <xdr:cNvPr id="157" name="図 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4753,7 +4854,7 @@
         <xdr:cNvPr id="158" name="図 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4792,7 +4893,7 @@
         <xdr:cNvPr id="159" name="図 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4831,7 +4932,7 @@
         <xdr:cNvPr id="160" name="図 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4870,7 +4971,7 @@
         <xdr:cNvPr id="161" name="図 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4909,7 +5010,7 @@
         <xdr:cNvPr id="162" name="図 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,7 +5049,7 @@
         <xdr:cNvPr id="163" name="図 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,7 +5088,7 @@
         <xdr:cNvPr id="164" name="図 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5026,7 +5127,7 @@
         <xdr:cNvPr id="165" name="図 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5075,7 +5176,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5142,7 +5243,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5209,7 +5310,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5276,7 +5377,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5338,7 +5439,7 @@
         <xdr:cNvPr id="182" name="テキスト ボックス 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +5517,7 @@
         <xdr:cNvPr id="187" name="テキスト ボックス 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5595,7 @@
         <xdr:cNvPr id="188" name="テキスト ボックス 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5572,7 +5673,7 @@
         <xdr:cNvPr id="189" name="テキスト ボックス 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5650,7 +5751,7 @@
         <xdr:cNvPr id="190" name="テキスト ボックス 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +5829,7 @@
         <xdr:cNvPr id="191" name="テキスト ボックス 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5806,7 +5907,7 @@
         <xdr:cNvPr id="192" name="テキスト ボックス 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5985,7 @@
         <xdr:cNvPr id="193" name="テキスト ボックス 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5962,7 +6063,7 @@
         <xdr:cNvPr id="194" name="テキスト ボックス 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6040,7 +6141,7 @@
         <xdr:cNvPr id="195" name="テキスト ボックス 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,7 +6219,7 @@
         <xdr:cNvPr id="196" name="テキスト ボックス 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6196,7 +6297,7 @@
         <xdr:cNvPr id="197" name="テキスト ボックス 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6274,7 +6375,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6352,7 +6453,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6430,7 +6531,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6508,7 +6609,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6574,7 +6675,7 @@
         <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6652,7 +6753,7 @@
         <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6730,7 +6831,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6801,14 +6902,14 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6816,8 +6917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="558800" y="37160200"/>
-          <a:ext cx="419100" cy="368300"/>
+          <a:off x="812800" y="53467000"/>
+          <a:ext cx="419100" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6872,13 +6973,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6886,7 +6987,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6950,13 +7051,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6964,7 +7065,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7026,23 +7127,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="81" name="テキスト ボックス 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7050,7 +7151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2908300" y="50990500"/>
+          <a:off x="7302500" y="54127400"/>
           <a:ext cx="419100" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7104,23 +7205,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="82" name="テキスト ボックス 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7128,7 +7229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2921000" y="50419000"/>
+          <a:off x="4013200" y="54102000"/>
           <a:ext cx="419100" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7198,7 +7299,85 @@
         <xdr:cNvPr id="83" name="テキスト ボックス 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873500" y="40779700"/>
+          <a:ext cx="419100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0432FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>７</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7442F113-3A60-5C45-9A38-64F52B99AE64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7558,11 +7737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E3D535-6972-7844-869E-803CD361176C}">
-  <dimension ref="A1:XFD257"/>
+  <dimension ref="A1:XFD278"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF17" sqref="AF17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="20"/>
@@ -7684,7 +7863,7 @@
     </row>
     <row r="4" spans="1:53" s="110" customFormat="1" ht="24">
       <c r="B4" s="130" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
@@ -7739,51 +7918,51 @@
     </row>
     <row r="5" spans="1:53">
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="D7" s="125" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="D11" s="125" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:53" s="110" customFormat="1" ht="24">
       <c r="B13" s="130" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C13" s="131"/>
       <c r="D13" s="131"/>
@@ -7838,7 +8017,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -9215,7 +9394,7 @@
     </row>
     <row r="45" spans="2:52" s="110" customFormat="1" ht="24">
       <c r="B45" s="130" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
@@ -11820,10 +11999,10 @@
       <c r="AE100" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AF100" s="132" t="s">
+      <c r="AF100" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="AG100" s="133"/>
+      <c r="AG100" s="135"/>
       <c r="AH100" s="86" t="s">
         <v>47</v>
       </c>
@@ -13999,7 +14178,7 @@
       <c r="R141" s="33"/>
       <c r="S141" s="34"/>
       <c r="T141" s="91" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="U141" s="41"/>
       <c r="V141" s="33"/>
@@ -14007,7 +14186,7 @@
       <c r="X141" s="33"/>
       <c r="Y141" s="33"/>
       <c r="Z141" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AA141" s="33"/>
       <c r="AB141" s="33"/>
@@ -14582,7 +14761,7 @@
       <c r="D155" s="19"/>
       <c r="E155" s="14"/>
       <c r="F155" s="127" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G155" s="128"/>
       <c r="H155" s="128"/>
@@ -15434,11 +15613,11 @@
       <c r="F172" s="32"/>
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
-      <c r="I172" s="134" t="s">
+      <c r="I172" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="J172" s="135"/>
-      <c r="K172" s="136"/>
+      <c r="J172" s="137"/>
+      <c r="K172" s="138"/>
       <c r="L172" s="33"/>
       <c r="M172" s="33"/>
       <c r="N172" s="33"/>
@@ -16942,7 +17121,7 @@
         <v>92</v>
       </c>
       <c r="G202" s="29" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -16957,7 +17136,7 @@
       <c r="R202" s="30"/>
       <c r="S202" s="31"/>
       <c r="T202" s="29" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="U202" s="90"/>
       <c r="V202" s="30"/>
@@ -17135,7 +17314,7 @@
     </row>
     <row r="207" spans="3:49">
       <c r="C207" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="3:49" s="56" customFormat="1" ht="25" customHeight="1">
@@ -17186,7 +17365,7 @@
       <c r="AV208" s="80"/>
       <c r="AW208" s="81"/>
     </row>
-    <row r="209" spans="4:49" ht="24">
+    <row r="209" spans="4:49" s="1" customFormat="1" ht="24">
       <c r="D209" s="19"/>
       <c r="E209" s="14"/>
       <c r="F209" s="79" t="s">
@@ -17238,15 +17417,13 @@
       <c r="AV209" s="14"/>
       <c r="AW209" s="20"/>
     </row>
-    <row r="210" spans="4:49" ht="38">
+    <row r="210" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D210" s="19"/>
       <c r="E210" s="14"/>
       <c r="F210" s="32"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="41" t="s">
-        <v>36</v>
-      </c>
+      <c r="G210" s="126"/>
+      <c r="H210" s="126"/>
+      <c r="I210" s="126"/>
       <c r="J210" s="33"/>
       <c r="K210" s="33"/>
       <c r="L210" s="33"/>
@@ -17288,119 +17465,119 @@
       <c r="AV210" s="14"/>
       <c r="AW210" s="20"/>
     </row>
-    <row r="211" spans="4:49" ht="10" customHeight="1">
+    <row r="211" spans="4:49" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="D211" s="19"/>
       <c r="E211" s="14"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="14"/>
-      <c r="I211" s="14"/>
-      <c r="J211" s="14"/>
-      <c r="K211" s="14"/>
-      <c r="L211" s="14"/>
-      <c r="M211" s="14"/>
-      <c r="N211" s="14"/>
-      <c r="O211" s="14"/>
-      <c r="P211" s="14"/>
-      <c r="Q211" s="14"/>
-      <c r="R211" s="14"/>
-      <c r="S211" s="14"/>
-      <c r="T211" s="14"/>
-      <c r="U211" s="14"/>
-      <c r="V211" s="14"/>
-      <c r="W211" s="14"/>
-      <c r="X211" s="14"/>
-      <c r="Y211" s="14"/>
-      <c r="Z211" s="14"/>
-      <c r="AA211" s="14"/>
-      <c r="AB211" s="14"/>
-      <c r="AC211" s="14"/>
-      <c r="AD211" s="14"/>
-      <c r="AE211" s="14"/>
-      <c r="AF211" s="14"/>
-      <c r="AG211" s="14"/>
-      <c r="AH211" s="14"/>
-      <c r="AI211" s="14"/>
-      <c r="AJ211" s="14"/>
-      <c r="AK211" s="14"/>
-      <c r="AL211" s="14"/>
-      <c r="AM211" s="14"/>
-      <c r="AN211" s="14"/>
-      <c r="AO211" s="14"/>
-      <c r="AP211" s="14"/>
-      <c r="AQ211" s="14"/>
-      <c r="AR211" s="14"/>
-      <c r="AS211" s="14"/>
-      <c r="AT211" s="20"/>
+      <c r="F211" s="127" t="s">
+        <v>173</v>
+      </c>
+      <c r="G211" s="128"/>
+      <c r="H211" s="128"/>
+      <c r="I211" s="128"/>
+      <c r="J211" s="128"/>
+      <c r="K211" s="128"/>
+      <c r="L211" s="128"/>
+      <c r="M211" s="128"/>
+      <c r="N211" s="128"/>
+      <c r="O211" s="128"/>
+      <c r="P211" s="128"/>
+      <c r="Q211" s="128"/>
+      <c r="R211" s="128"/>
+      <c r="S211" s="128"/>
+      <c r="T211" s="128"/>
+      <c r="U211" s="128"/>
+      <c r="V211" s="128"/>
+      <c r="W211" s="128"/>
+      <c r="X211" s="128"/>
+      <c r="Y211" s="128"/>
+      <c r="Z211" s="128"/>
+      <c r="AA211" s="128"/>
+      <c r="AB211" s="128"/>
+      <c r="AC211" s="128"/>
+      <c r="AD211" s="128"/>
+      <c r="AE211" s="128"/>
+      <c r="AF211" s="128"/>
+      <c r="AG211" s="128"/>
+      <c r="AH211" s="128"/>
+      <c r="AI211" s="128"/>
+      <c r="AJ211" s="128"/>
+      <c r="AK211" s="128"/>
+      <c r="AL211" s="128"/>
+      <c r="AM211" s="128"/>
+      <c r="AN211" s="128"/>
+      <c r="AO211" s="128"/>
+      <c r="AP211" s="128"/>
+      <c r="AQ211" s="128"/>
+      <c r="AR211" s="128"/>
+      <c r="AS211" s="128"/>
+      <c r="AT211" s="129"/>
       <c r="AU211" s="14"/>
       <c r="AV211" s="14"/>
       <c r="AW211" s="20"/>
     </row>
-    <row r="212" spans="4:49" s="110" customFormat="1" ht="24">
-      <c r="D212" s="111"/>
-      <c r="E212" s="112"/>
-      <c r="F212" s="111"/>
-      <c r="G212" s="112"/>
-      <c r="H212" s="112"/>
-      <c r="I212" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="J212" s="112"/>
-      <c r="K212" s="112"/>
-      <c r="L212" s="112"/>
-      <c r="M212" s="112"/>
-      <c r="N212" s="112"/>
-      <c r="P212" s="122" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q212" s="123"/>
-      <c r="R212" s="123"/>
-      <c r="S212" s="123"/>
-      <c r="T212" s="123"/>
-      <c r="U212" s="123"/>
-      <c r="V212" s="123"/>
-      <c r="W212" s="123"/>
-      <c r="X212" s="123"/>
-      <c r="Y212" s="123"/>
-      <c r="Z212" s="123"/>
-      <c r="AA212" s="123"/>
-      <c r="AB212" s="123"/>
-      <c r="AC212" s="123"/>
-      <c r="AD212" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE212" s="112"/>
-      <c r="AF212" s="112"/>
-      <c r="AG212" s="112"/>
-      <c r="AH212" s="112"/>
-      <c r="AI212" s="112"/>
-      <c r="AJ212" s="112"/>
-      <c r="AK212" s="112"/>
-      <c r="AL212" s="112"/>
-      <c r="AM212" s="112"/>
-      <c r="AN212" s="112"/>
-      <c r="AO212" s="112"/>
-      <c r="AP212" s="112"/>
-      <c r="AQ212" s="112"/>
-      <c r="AR212" s="112"/>
-      <c r="AS212" s="112"/>
-      <c r="AT212" s="113"/>
-      <c r="AU212" s="112"/>
-      <c r="AV212" s="112"/>
-      <c r="AW212" s="113"/>
-    </row>
-    <row r="213" spans="4:49" s="110" customFormat="1" ht="15" customHeight="1">
-      <c r="D213" s="111"/>
-      <c r="E213" s="112"/>
-      <c r="F213" s="111"/>
-      <c r="G213" s="112"/>
-      <c r="H213" s="112"/>
-      <c r="I213" s="112"/>
-      <c r="J213" s="112"/>
-      <c r="K213" s="112"/>
-      <c r="L213" s="112"/>
-      <c r="M213" s="112"/>
-      <c r="N213" s="112"/>
+    <row r="212" spans="4:49" s="1" customFormat="1" ht="10" customHeight="1">
+      <c r="D212" s="19"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="126"/>
+      <c r="H212" s="126"/>
+      <c r="I212" s="126"/>
+      <c r="J212" s="33"/>
+      <c r="K212" s="33"/>
+      <c r="L212" s="33"/>
+      <c r="M212" s="33"/>
+      <c r="N212" s="33"/>
+      <c r="O212" s="33"/>
+      <c r="P212" s="33"/>
+      <c r="Q212" s="33"/>
+      <c r="R212" s="33"/>
+      <c r="S212" s="33"/>
+      <c r="T212" s="33"/>
+      <c r="U212" s="33"/>
+      <c r="V212" s="33"/>
+      <c r="W212" s="33"/>
+      <c r="X212" s="33"/>
+      <c r="Y212" s="33"/>
+      <c r="Z212" s="33"/>
+      <c r="AA212" s="33"/>
+      <c r="AB212" s="33"/>
+      <c r="AC212" s="33"/>
+      <c r="AD212" s="33"/>
+      <c r="AE212" s="33"/>
+      <c r="AF212" s="33"/>
+      <c r="AG212" s="33"/>
+      <c r="AH212" s="33"/>
+      <c r="AI212" s="33"/>
+      <c r="AJ212" s="33"/>
+      <c r="AK212" s="33"/>
+      <c r="AL212" s="33"/>
+      <c r="AM212" s="33"/>
+      <c r="AN212" s="33"/>
+      <c r="AO212" s="33"/>
+      <c r="AP212" s="33"/>
+      <c r="AQ212" s="33"/>
+      <c r="AR212" s="33"/>
+      <c r="AS212" s="33"/>
+      <c r="AT212" s="34"/>
+      <c r="AU212" s="14"/>
+      <c r="AV212" s="14"/>
+      <c r="AW212" s="20"/>
+    </row>
+    <row r="213" spans="4:49" s="1" customFormat="1" ht="38">
+      <c r="D213" s="19"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J213" s="33"/>
+      <c r="K213" s="33"/>
+      <c r="L213" s="33"/>
+      <c r="M213" s="33"/>
+      <c r="N213" s="33"/>
+      <c r="O213" s="33"/>
       <c r="P213" s="33"/>
       <c r="Q213" s="33"/>
       <c r="R213" s="33"/>
@@ -17414,123 +17591,117 @@
       <c r="Z213" s="33"/>
       <c r="AA213" s="33"/>
       <c r="AB213" s="33"/>
-      <c r="AC213" s="112"/>
-      <c r="AD213" s="112"/>
-      <c r="AE213" s="112"/>
-      <c r="AF213" s="112"/>
-      <c r="AG213" s="112"/>
-      <c r="AH213" s="112"/>
-      <c r="AI213" s="112"/>
-      <c r="AJ213" s="112"/>
-      <c r="AK213" s="112"/>
-      <c r="AL213" s="112"/>
-      <c r="AM213" s="112"/>
-      <c r="AN213" s="112"/>
-      <c r="AO213" s="112"/>
-      <c r="AP213" s="112"/>
-      <c r="AQ213" s="112"/>
-      <c r="AR213" s="112"/>
-      <c r="AS213" s="112"/>
-      <c r="AT213" s="113"/>
-      <c r="AU213" s="112"/>
-      <c r="AV213" s="112"/>
-      <c r="AW213" s="113"/>
-    </row>
-    <row r="214" spans="4:49" s="110" customFormat="1" ht="24">
-      <c r="D214" s="111"/>
-      <c r="E214" s="112"/>
-      <c r="F214" s="111"/>
-      <c r="G214" s="112"/>
-      <c r="H214" s="112"/>
-      <c r="I214" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="J214" s="112"/>
-      <c r="K214" s="112"/>
-      <c r="L214" s="112"/>
-      <c r="M214" s="112"/>
-      <c r="N214" s="112"/>
-      <c r="P214" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q214" s="123"/>
-      <c r="R214" s="123"/>
-      <c r="S214" s="123"/>
-      <c r="T214" s="123"/>
-      <c r="U214" s="123"/>
-      <c r="V214" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="W214" s="123"/>
-      <c r="X214" s="123"/>
-      <c r="Y214" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA214" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB214" s="123"/>
-      <c r="AC214" s="123"/>
-      <c r="AD214" s="123"/>
-      <c r="AE214" s="123"/>
-      <c r="AF214" s="123"/>
-      <c r="AG214" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH214" s="123"/>
-      <c r="AI214" s="123"/>
-      <c r="AJ214" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK214" s="112"/>
-      <c r="AL214" s="112"/>
-      <c r="AM214" s="112"/>
-      <c r="AN214" s="112"/>
-      <c r="AO214" s="112"/>
-      <c r="AP214" s="112"/>
-      <c r="AQ214" s="112"/>
-      <c r="AR214" s="112"/>
-      <c r="AS214" s="112"/>
-      <c r="AT214" s="113"/>
-      <c r="AU214" s="112"/>
-      <c r="AV214" s="112"/>
-      <c r="AW214" s="113"/>
-    </row>
-    <row r="215" spans="4:49" s="110" customFormat="1" ht="15" customHeight="1">
+      <c r="AC213" s="33"/>
+      <c r="AD213" s="33"/>
+      <c r="AE213" s="33"/>
+      <c r="AF213" s="33"/>
+      <c r="AG213" s="33"/>
+      <c r="AH213" s="33"/>
+      <c r="AI213" s="33"/>
+      <c r="AJ213" s="33"/>
+      <c r="AK213" s="33"/>
+      <c r="AL213" s="33"/>
+      <c r="AM213" s="33"/>
+      <c r="AN213" s="33"/>
+      <c r="AO213" s="33"/>
+      <c r="AP213" s="33"/>
+      <c r="AQ213" s="33"/>
+      <c r="AR213" s="33"/>
+      <c r="AS213" s="33"/>
+      <c r="AT213" s="34"/>
+      <c r="AU213" s="14"/>
+      <c r="AV213" s="14"/>
+      <c r="AW213" s="20"/>
+    </row>
+    <row r="214" spans="4:49" s="1" customFormat="1" ht="10" customHeight="1">
+      <c r="D214" s="19"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="14"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="14"/>
+      <c r="N214" s="14"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
+      <c r="Q214" s="14"/>
+      <c r="R214" s="14"/>
+      <c r="S214" s="14"/>
+      <c r="T214" s="14"/>
+      <c r="U214" s="14"/>
+      <c r="V214" s="14"/>
+      <c r="W214" s="14"/>
+      <c r="X214" s="14"/>
+      <c r="Y214" s="14"/>
+      <c r="Z214" s="14"/>
+      <c r="AA214" s="14"/>
+      <c r="AB214" s="14"/>
+      <c r="AC214" s="14"/>
+      <c r="AD214" s="14"/>
+      <c r="AE214" s="14"/>
+      <c r="AF214" s="14"/>
+      <c r="AG214" s="14"/>
+      <c r="AH214" s="14"/>
+      <c r="AI214" s="14"/>
+      <c r="AJ214" s="14"/>
+      <c r="AK214" s="14"/>
+      <c r="AL214" s="14"/>
+      <c r="AM214" s="14"/>
+      <c r="AN214" s="14"/>
+      <c r="AO214" s="14"/>
+      <c r="AP214" s="14"/>
+      <c r="AQ214" s="14"/>
+      <c r="AR214" s="14"/>
+      <c r="AS214" s="14"/>
+      <c r="AT214" s="20"/>
+      <c r="AU214" s="14"/>
+      <c r="AV214" s="14"/>
+      <c r="AW214" s="20"/>
+    </row>
+    <row r="215" spans="4:49" s="110" customFormat="1" ht="24">
       <c r="D215" s="111"/>
       <c r="E215" s="112"/>
       <c r="F215" s="111"/>
       <c r="G215" s="112"/>
       <c r="H215" s="112"/>
-      <c r="I215" s="112"/>
+      <c r="I215" s="112" t="s">
+        <v>205</v>
+      </c>
       <c r="J215" s="112"/>
       <c r="K215" s="112"/>
       <c r="L215" s="112"/>
       <c r="M215" s="112"/>
       <c r="N215" s="112"/>
-      <c r="O215" s="33"/>
-      <c r="P215" s="33"/>
-      <c r="Q215" s="33"/>
-      <c r="R215" s="33"/>
-      <c r="S215" s="33"/>
-      <c r="T215" s="33"/>
-      <c r="U215" s="33"/>
-      <c r="V215" s="33"/>
-      <c r="W215" s="33"/>
-      <c r="X215" s="33"/>
-      <c r="Y215" s="33"/>
-      <c r="Z215" s="33"/>
-      <c r="AA215" s="33"/>
-      <c r="AB215" s="112"/>
-      <c r="AC215" s="112"/>
-      <c r="AD215" s="112"/>
-      <c r="AE215" s="112"/>
-      <c r="AF215" s="112"/>
-      <c r="AG215" s="112"/>
-      <c r="AH215" s="112"/>
-      <c r="AI215" s="112"/>
-      <c r="AJ215" s="112"/>
-      <c r="AK215" s="112"/>
+      <c r="P215" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q215" s="123"/>
+      <c r="R215" s="123"/>
+      <c r="S215" s="123"/>
+      <c r="T215" s="123"/>
+      <c r="U215" s="123"/>
+      <c r="V215" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="W215" s="112"/>
+      <c r="X215" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y215" s="123"/>
+      <c r="Z215" s="123"/>
+      <c r="AA215" s="123"/>
+      <c r="AB215" s="123"/>
+      <c r="AC215" s="123"/>
+      <c r="AD215" s="123"/>
+      <c r="AE215" s="123"/>
+      <c r="AF215" s="123"/>
+      <c r="AG215" s="123"/>
+      <c r="AH215" s="124" t="s">
+        <v>41</v>
+      </c>
       <c r="AL215" s="112"/>
       <c r="AM215" s="112"/>
       <c r="AN215" s="112"/>
@@ -17544,191 +17715,196 @@
       <c r="AV215" s="112"/>
       <c r="AW215" s="113"/>
     </row>
-    <row r="216" spans="4:49" ht="24">
-      <c r="D216" s="19"/>
-      <c r="E216" s="14"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="14"/>
-      <c r="H216" s="14"/>
-      <c r="I216" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="J216" s="14"/>
-      <c r="K216" s="14"/>
-      <c r="L216" s="14"/>
-      <c r="M216" s="14"/>
-      <c r="N216" s="14"/>
-      <c r="O216" s="14"/>
-      <c r="P216" s="114"/>
-      <c r="Q216" s="115"/>
-      <c r="R216" s="115"/>
-      <c r="S216" s="115"/>
-      <c r="T216" s="115"/>
-      <c r="U216" s="115"/>
-      <c r="V216" s="115"/>
-      <c r="W216" s="115"/>
-      <c r="X216" s="115"/>
-      <c r="Y216" s="115"/>
-      <c r="Z216" s="115"/>
-      <c r="AA216" s="115"/>
-      <c r="AB216" s="115"/>
-      <c r="AC216" s="115"/>
-      <c r="AD216" s="115"/>
-      <c r="AE216" s="115"/>
-      <c r="AF216" s="115"/>
-      <c r="AG216" s="115"/>
-      <c r="AH216" s="115"/>
-      <c r="AI216" s="115"/>
-      <c r="AJ216" s="115"/>
-      <c r="AK216" s="115"/>
-      <c r="AL216" s="115"/>
-      <c r="AM216" s="115"/>
-      <c r="AN216" s="115"/>
-      <c r="AO216" s="116"/>
+    <row r="216" spans="4:49" s="110" customFormat="1" ht="15" customHeight="1">
+      <c r="D216" s="111"/>
+      <c r="E216" s="112"/>
+      <c r="F216" s="111"/>
+      <c r="G216" s="112"/>
+      <c r="H216" s="112"/>
+      <c r="I216" s="112"/>
+      <c r="J216" s="112"/>
+      <c r="K216" s="112"/>
+      <c r="L216" s="112"/>
+      <c r="M216" s="112"/>
+      <c r="N216" s="112"/>
+      <c r="P216" s="33"/>
+      <c r="Q216" s="33"/>
+      <c r="R216" s="33"/>
+      <c r="S216" s="33"/>
+      <c r="T216" s="33"/>
+      <c r="U216" s="33"/>
+      <c r="V216" s="33"/>
+      <c r="W216" s="33"/>
+      <c r="X216" s="33"/>
+      <c r="Y216" s="33"/>
+      <c r="Z216" s="33"/>
+      <c r="AA216" s="33"/>
+      <c r="AB216" s="33"/>
+      <c r="AC216" s="112"/>
+      <c r="AD216" s="112"/>
+      <c r="AE216" s="112"/>
+      <c r="AF216" s="112"/>
+      <c r="AG216" s="112"/>
+      <c r="AH216" s="112"/>
+      <c r="AI216" s="112"/>
+      <c r="AJ216" s="112"/>
+      <c r="AK216" s="112"/>
+      <c r="AL216" s="112"/>
+      <c r="AM216" s="112"/>
+      <c r="AN216" s="112"/>
+      <c r="AO216" s="112"/>
       <c r="AP216" s="112"/>
-      <c r="AQ216" s="14"/>
-      <c r="AR216" s="14"/>
-      <c r="AS216" s="14"/>
-      <c r="AT216" s="20"/>
-      <c r="AU216" s="14"/>
-      <c r="AV216" s="14"/>
-      <c r="AW216" s="20"/>
-    </row>
-    <row r="217" spans="4:49" ht="20" customHeight="1">
-      <c r="D217" s="19"/>
-      <c r="E217" s="14"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="14"/>
-      <c r="H217" s="14"/>
-      <c r="I217" s="14"/>
-      <c r="J217" s="14"/>
-      <c r="K217" s="14"/>
-      <c r="L217" s="14"/>
-      <c r="M217" s="14"/>
-      <c r="N217" s="14"/>
-      <c r="O217" s="14"/>
-      <c r="P217" s="117"/>
-      <c r="Q217" s="14"/>
-      <c r="R217" s="14"/>
-      <c r="S217" s="14"/>
-      <c r="T217" s="14"/>
-      <c r="U217" s="14"/>
-      <c r="V217" s="14"/>
-      <c r="W217" s="14"/>
-      <c r="X217" s="14"/>
-      <c r="Y217" s="14"/>
-      <c r="Z217" s="14"/>
-      <c r="AA217" s="14"/>
-      <c r="AB217" s="14"/>
-      <c r="AC217" s="14"/>
-      <c r="AD217" s="14"/>
-      <c r="AE217" s="14"/>
-      <c r="AF217" s="14"/>
-      <c r="AG217" s="14"/>
-      <c r="AH217" s="14"/>
-      <c r="AI217" s="14"/>
-      <c r="AJ217" s="14"/>
-      <c r="AK217" s="14"/>
-      <c r="AL217" s="14"/>
-      <c r="AM217" s="14"/>
-      <c r="AN217" s="14"/>
-      <c r="AO217" s="118"/>
+      <c r="AQ216" s="112"/>
+      <c r="AR216" s="112"/>
+      <c r="AS216" s="112"/>
+      <c r="AT216" s="113"/>
+      <c r="AU216" s="112"/>
+      <c r="AV216" s="112"/>
+      <c r="AW216" s="113"/>
+    </row>
+    <row r="217" spans="4:49" s="110" customFormat="1" ht="24">
+      <c r="D217" s="111"/>
+      <c r="E217" s="112"/>
+      <c r="F217" s="111"/>
+      <c r="G217" s="112"/>
+      <c r="H217" s="112"/>
+      <c r="I217" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="J217" s="112"/>
+      <c r="K217" s="112"/>
+      <c r="L217" s="112"/>
+      <c r="M217" s="112"/>
+      <c r="N217" s="112"/>
+      <c r="P217" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q217" s="123"/>
+      <c r="R217" s="123"/>
+      <c r="S217" s="123"/>
+      <c r="T217" s="123"/>
+      <c r="U217" s="123"/>
+      <c r="V217" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="W217" s="112"/>
+      <c r="X217" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y217" s="123"/>
+      <c r="Z217" s="123"/>
+      <c r="AA217" s="123"/>
+      <c r="AB217" s="123"/>
+      <c r="AC217" s="123"/>
+      <c r="AD217" s="123"/>
+      <c r="AE217" s="123"/>
+      <c r="AF217" s="123"/>
+      <c r="AG217" s="123"/>
+      <c r="AH217" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL217" s="112"/>
+      <c r="AM217" s="112"/>
+      <c r="AN217" s="112"/>
+      <c r="AO217" s="112"/>
       <c r="AP217" s="112"/>
-      <c r="AQ217" s="14"/>
-      <c r="AR217" s="14"/>
-      <c r="AS217" s="14"/>
-      <c r="AT217" s="20"/>
-      <c r="AU217" s="14"/>
-      <c r="AV217" s="14"/>
-      <c r="AW217" s="20"/>
-    </row>
-    <row r="218" spans="4:49" ht="20" customHeight="1">
-      <c r="D218" s="19"/>
-      <c r="E218" s="14"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="14"/>
-      <c r="H218" s="14"/>
-      <c r="I218" s="14"/>
-      <c r="J218" s="14"/>
-      <c r="K218" s="14"/>
-      <c r="L218" s="14"/>
-      <c r="M218" s="14"/>
-      <c r="N218" s="14"/>
-      <c r="O218" s="14"/>
-      <c r="P218" s="117"/>
-      <c r="Q218" s="14"/>
-      <c r="R218" s="14"/>
-      <c r="S218" s="14"/>
-      <c r="T218" s="14"/>
-      <c r="U218" s="14"/>
-      <c r="V218" s="14"/>
-      <c r="W218" s="14"/>
-      <c r="X218" s="14"/>
-      <c r="Y218" s="14"/>
-      <c r="Z218" s="14"/>
-      <c r="AA218" s="14"/>
-      <c r="AB218" s="14"/>
-      <c r="AC218" s="14"/>
-      <c r="AD218" s="14"/>
-      <c r="AE218" s="14"/>
-      <c r="AF218" s="14"/>
-      <c r="AG218" s="14"/>
-      <c r="AH218" s="14"/>
-      <c r="AI218" s="14"/>
-      <c r="AJ218" s="14"/>
-      <c r="AK218" s="14"/>
-      <c r="AL218" s="14"/>
-      <c r="AM218" s="14"/>
-      <c r="AN218" s="14"/>
-      <c r="AO218" s="118"/>
+      <c r="AQ217" s="112"/>
+      <c r="AR217" s="112"/>
+      <c r="AS217" s="112"/>
+      <c r="AT217" s="113"/>
+      <c r="AU217" s="112"/>
+      <c r="AV217" s="112"/>
+      <c r="AW217" s="113"/>
+    </row>
+    <row r="218" spans="4:49" s="110" customFormat="1" ht="15" customHeight="1">
+      <c r="D218" s="111"/>
+      <c r="E218" s="112"/>
+      <c r="F218" s="111"/>
+      <c r="G218" s="112"/>
+      <c r="H218" s="112"/>
+      <c r="I218" s="112"/>
+      <c r="J218" s="112"/>
+      <c r="K218" s="112"/>
+      <c r="L218" s="112"/>
+      <c r="M218" s="112"/>
+      <c r="N218" s="112"/>
+      <c r="O218" s="33"/>
+      <c r="P218" s="33"/>
+      <c r="Q218" s="33"/>
+      <c r="R218" s="33"/>
+      <c r="S218" s="33"/>
+      <c r="T218" s="33"/>
+      <c r="U218" s="33"/>
+      <c r="V218" s="33"/>
+      <c r="W218" s="33"/>
+      <c r="X218" s="33"/>
+      <c r="Y218" s="33"/>
+      <c r="Z218" s="33"/>
+      <c r="AA218" s="33"/>
+      <c r="AB218" s="112"/>
+      <c r="AC218" s="112"/>
+      <c r="AD218" s="112"/>
+      <c r="AE218" s="112"/>
+      <c r="AF218" s="112"/>
+      <c r="AG218" s="112"/>
+      <c r="AH218" s="112"/>
+      <c r="AI218" s="112"/>
+      <c r="AJ218" s="112"/>
+      <c r="AK218" s="112"/>
+      <c r="AL218" s="112"/>
+      <c r="AM218" s="112"/>
+      <c r="AN218" s="112"/>
+      <c r="AO218" s="112"/>
       <c r="AP218" s="112"/>
-      <c r="AQ218" s="14"/>
-      <c r="AR218" s="14"/>
-      <c r="AS218" s="14"/>
-      <c r="AT218" s="20"/>
-      <c r="AU218" s="14"/>
-      <c r="AV218" s="14"/>
-      <c r="AW218" s="20"/>
-    </row>
-    <row r="219" spans="4:49" ht="5" customHeight="1">
+      <c r="AQ218" s="112"/>
+      <c r="AR218" s="112"/>
+      <c r="AS218" s="112"/>
+      <c r="AT218" s="113"/>
+      <c r="AU218" s="112"/>
+      <c r="AV218" s="112"/>
+      <c r="AW218" s="113"/>
+    </row>
+    <row r="219" spans="4:49" s="1" customFormat="1" ht="24">
       <c r="D219" s="19"/>
       <c r="E219" s="14"/>
       <c r="F219" s="19"/>
       <c r="G219" s="14"/>
       <c r="H219" s="14"/>
-      <c r="I219" s="14"/>
+      <c r="I219" s="112" t="s">
+        <v>153</v>
+      </c>
       <c r="J219" s="14"/>
       <c r="K219" s="14"/>
       <c r="L219" s="14"/>
       <c r="M219" s="14"/>
       <c r="N219" s="14"/>
       <c r="O219" s="14"/>
-      <c r="P219" s="117"/>
-      <c r="Q219" s="14"/>
-      <c r="R219" s="14"/>
-      <c r="S219" s="14"/>
-      <c r="T219" s="14"/>
-      <c r="U219" s="14"/>
-      <c r="V219" s="14"/>
-      <c r="W219" s="14"/>
-      <c r="X219" s="14"/>
-      <c r="Y219" s="14"/>
-      <c r="Z219" s="14"/>
-      <c r="AA219" s="14"/>
-      <c r="AB219" s="14"/>
-      <c r="AC219" s="14"/>
-      <c r="AD219" s="14"/>
-      <c r="AE219" s="14"/>
-      <c r="AF219" s="14"/>
-      <c r="AG219" s="14"/>
-      <c r="AH219" s="14"/>
-      <c r="AI219" s="14"/>
-      <c r="AJ219" s="14"/>
-      <c r="AK219" s="14"/>
-      <c r="AL219" s="14"/>
-      <c r="AM219" s="14"/>
-      <c r="AN219" s="14"/>
-      <c r="AO219" s="118"/>
+      <c r="P219" s="114"/>
+      <c r="Q219" s="115"/>
+      <c r="R219" s="115"/>
+      <c r="S219" s="115"/>
+      <c r="T219" s="115"/>
+      <c r="U219" s="115"/>
+      <c r="V219" s="115"/>
+      <c r="W219" s="115"/>
+      <c r="X219" s="115"/>
+      <c r="Y219" s="115"/>
+      <c r="Z219" s="115"/>
+      <c r="AA219" s="115"/>
+      <c r="AB219" s="115"/>
+      <c r="AC219" s="115"/>
+      <c r="AD219" s="115"/>
+      <c r="AE219" s="115"/>
+      <c r="AF219" s="115"/>
+      <c r="AG219" s="115"/>
+      <c r="AH219" s="115"/>
+      <c r="AI219" s="115"/>
+      <c r="AJ219" s="115"/>
+      <c r="AK219" s="115"/>
+      <c r="AL219" s="115"/>
+      <c r="AM219" s="115"/>
+      <c r="AN219" s="115"/>
+      <c r="AO219" s="116"/>
       <c r="AP219" s="112"/>
       <c r="AQ219" s="14"/>
       <c r="AR219" s="14"/>
@@ -17738,38 +17914,45 @@
       <c r="AV219" s="14"/>
       <c r="AW219" s="20"/>
     </row>
-    <row r="220" spans="4:49" ht="24">
+    <row r="220" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D220" s="19"/>
       <c r="E220" s="14"/>
       <c r="F220" s="19"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
-      <c r="P220" s="119"/>
-      <c r="Q220" s="120"/>
-      <c r="R220" s="120"/>
-      <c r="S220" s="120"/>
-      <c r="T220" s="120"/>
-      <c r="U220" s="120"/>
-      <c r="V220" s="120"/>
-      <c r="W220" s="120"/>
-      <c r="X220" s="120"/>
-      <c r="Y220" s="120"/>
-      <c r="Z220" s="120"/>
-      <c r="AA220" s="120"/>
-      <c r="AB220" s="120"/>
-      <c r="AC220" s="120"/>
-      <c r="AD220" s="120"/>
-      <c r="AE220" s="120"/>
-      <c r="AF220" s="120"/>
-      <c r="AG220" s="120"/>
-      <c r="AH220" s="120"/>
-      <c r="AI220" s="120"/>
-      <c r="AJ220" s="120"/>
-      <c r="AK220" s="120"/>
-      <c r="AL220" s="120"/>
-      <c r="AM220" s="120"/>
-      <c r="AN220" s="120"/>
-      <c r="AO220" s="121"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
+      <c r="K220" s="14"/>
+      <c r="L220" s="14"/>
+      <c r="M220" s="14"/>
+      <c r="N220" s="14"/>
+      <c r="O220" s="14"/>
+      <c r="P220" s="117"/>
+      <c r="Q220" s="14"/>
+      <c r="R220" s="14"/>
+      <c r="S220" s="14"/>
+      <c r="T220" s="14"/>
+      <c r="U220" s="14"/>
+      <c r="V220" s="14"/>
+      <c r="W220" s="14"/>
+      <c r="X220" s="14"/>
+      <c r="Y220" s="14"/>
+      <c r="Z220" s="14"/>
+      <c r="AA220" s="14"/>
+      <c r="AB220" s="14"/>
+      <c r="AC220" s="14"/>
+      <c r="AD220" s="14"/>
+      <c r="AE220" s="14"/>
+      <c r="AF220" s="14"/>
+      <c r="AG220" s="14"/>
+      <c r="AH220" s="14"/>
+      <c r="AI220" s="14"/>
+      <c r="AJ220" s="14"/>
+      <c r="AK220" s="14"/>
+      <c r="AL220" s="14"/>
+      <c r="AM220" s="14"/>
+      <c r="AN220" s="14"/>
+      <c r="AO220" s="118"/>
       <c r="AP220" s="112"/>
       <c r="AQ220" s="14"/>
       <c r="AR220" s="14"/>
@@ -17779,7 +17962,7 @@
       <c r="AV220" s="14"/>
       <c r="AW220" s="20"/>
     </row>
-    <row r="221" spans="4:49">
+    <row r="221" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D221" s="19"/>
       <c r="E221" s="14"/>
       <c r="F221" s="19"/>
@@ -17792,7 +17975,7 @@
       <c r="M221" s="14"/>
       <c r="N221" s="14"/>
       <c r="O221" s="14"/>
-      <c r="P221" s="14"/>
+      <c r="P221" s="117"/>
       <c r="Q221" s="14"/>
       <c r="R221" s="14"/>
       <c r="S221" s="14"/>
@@ -17817,8 +18000,8 @@
       <c r="AL221" s="14"/>
       <c r="AM221" s="14"/>
       <c r="AN221" s="14"/>
-      <c r="AO221" s="14"/>
-      <c r="AP221" s="14"/>
+      <c r="AO221" s="118"/>
+      <c r="AP221" s="112"/>
       <c r="AQ221" s="14"/>
       <c r="AR221" s="14"/>
       <c r="AS221" s="14"/>
@@ -17827,158 +18010,154 @@
       <c r="AV221" s="14"/>
       <c r="AW221" s="20"/>
     </row>
-    <row r="222" spans="4:49" ht="20" customHeight="1">
+    <row r="222" spans="4:49" s="1" customFormat="1" ht="5" customHeight="1">
       <c r="D222" s="19"/>
       <c r="E222" s="14"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="J222" s="135"/>
-      <c r="K222" s="136"/>
-      <c r="L222" s="33"/>
-      <c r="M222" s="33"/>
-      <c r="N222" s="33"/>
-      <c r="O222" s="33"/>
-      <c r="P222" s="33"/>
-      <c r="Q222" s="33"/>
-      <c r="R222" s="33"/>
-      <c r="S222" s="33"/>
-      <c r="T222" s="33"/>
-      <c r="U222" s="33"/>
-      <c r="V222" s="33"/>
-      <c r="W222" s="33"/>
-      <c r="AA222" s="33"/>
-      <c r="AB222" s="33"/>
-      <c r="AC222" s="33"/>
-      <c r="AD222" s="33"/>
-      <c r="AE222" s="33"/>
-      <c r="AF222" s="33"/>
-      <c r="AG222" s="33"/>
-      <c r="AH222" s="33"/>
-      <c r="AI222" s="33"/>
-      <c r="AJ222" s="33"/>
-      <c r="AK222" s="33"/>
-      <c r="AL222" s="33"/>
-      <c r="AM222" s="33"/>
-      <c r="AN222" s="33"/>
-      <c r="AO222" s="33"/>
-      <c r="AP222" s="33"/>
-      <c r="AQ222" s="33"/>
-      <c r="AR222" s="33"/>
-      <c r="AS222" s="33"/>
-      <c r="AT222" s="34"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="14"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="14"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="14"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="14"/>
+      <c r="N222" s="14"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="117"/>
+      <c r="Q222" s="14"/>
+      <c r="R222" s="14"/>
+      <c r="S222" s="14"/>
+      <c r="T222" s="14"/>
+      <c r="U222" s="14"/>
+      <c r="V222" s="14"/>
+      <c r="W222" s="14"/>
+      <c r="X222" s="14"/>
+      <c r="Y222" s="14"/>
+      <c r="Z222" s="14"/>
+      <c r="AA222" s="14"/>
+      <c r="AB222" s="14"/>
+      <c r="AC222" s="14"/>
+      <c r="AD222" s="14"/>
+      <c r="AE222" s="14"/>
+      <c r="AF222" s="14"/>
+      <c r="AG222" s="14"/>
+      <c r="AH222" s="14"/>
+      <c r="AI222" s="14"/>
+      <c r="AJ222" s="14"/>
+      <c r="AK222" s="14"/>
+      <c r="AL222" s="14"/>
+      <c r="AM222" s="14"/>
+      <c r="AN222" s="14"/>
+      <c r="AO222" s="118"/>
+      <c r="AP222" s="112"/>
+      <c r="AQ222" s="14"/>
+      <c r="AR222" s="14"/>
+      <c r="AS222" s="14"/>
+      <c r="AT222" s="20"/>
       <c r="AU222" s="14"/>
       <c r="AV222" s="14"/>
       <c r="AW222" s="20"/>
     </row>
-    <row r="223" spans="4:49" ht="20" customHeight="1">
+    <row r="223" spans="4:49" s="1" customFormat="1" ht="24">
       <c r="D223" s="19"/>
       <c r="E223" s="14"/>
-      <c r="F223" s="35"/>
-      <c r="G223" s="37"/>
-      <c r="H223" s="37"/>
-      <c r="I223" s="78"/>
-      <c r="J223" s="37"/>
-      <c r="K223" s="37"/>
-      <c r="L223" s="37"/>
-      <c r="M223" s="37"/>
-      <c r="N223" s="37"/>
-      <c r="O223" s="37"/>
-      <c r="P223" s="37"/>
-      <c r="Q223" s="37"/>
-      <c r="R223" s="37"/>
-      <c r="S223" s="37"/>
-      <c r="T223" s="37"/>
-      <c r="U223" s="37"/>
-      <c r="V223" s="37"/>
-      <c r="W223" s="37"/>
-      <c r="X223" s="37"/>
-      <c r="Y223" s="37"/>
-      <c r="Z223" s="37"/>
-      <c r="AA223" s="37"/>
-      <c r="AB223" s="37"/>
-      <c r="AC223" s="37"/>
-      <c r="AD223" s="37"/>
-      <c r="AE223" s="37"/>
-      <c r="AF223" s="37"/>
-      <c r="AG223" s="37"/>
-      <c r="AH223" s="37"/>
-      <c r="AI223" s="37"/>
-      <c r="AJ223" s="37"/>
-      <c r="AK223" s="37"/>
-      <c r="AL223" s="37"/>
-      <c r="AM223" s="37"/>
-      <c r="AN223" s="37"/>
-      <c r="AO223" s="37"/>
-      <c r="AP223" s="37"/>
-      <c r="AQ223" s="37"/>
-      <c r="AR223" s="37"/>
-      <c r="AS223" s="37"/>
-      <c r="AT223" s="36"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="14"/>
+      <c r="H223" s="14"/>
+      <c r="P223" s="119"/>
+      <c r="Q223" s="120"/>
+      <c r="R223" s="120"/>
+      <c r="S223" s="120"/>
+      <c r="T223" s="120"/>
+      <c r="U223" s="120"/>
+      <c r="V223" s="120"/>
+      <c r="W223" s="120"/>
+      <c r="X223" s="120"/>
+      <c r="Y223" s="120"/>
+      <c r="Z223" s="120"/>
+      <c r="AA223" s="120"/>
+      <c r="AB223" s="120"/>
+      <c r="AC223" s="120"/>
+      <c r="AD223" s="120"/>
+      <c r="AE223" s="120"/>
+      <c r="AF223" s="120"/>
+      <c r="AG223" s="120"/>
+      <c r="AH223" s="120"/>
+      <c r="AI223" s="120"/>
+      <c r="AJ223" s="120"/>
+      <c r="AK223" s="120"/>
+      <c r="AL223" s="120"/>
+      <c r="AM223" s="120"/>
+      <c r="AN223" s="120"/>
+      <c r="AO223" s="121"/>
+      <c r="AP223" s="112"/>
+      <c r="AQ223" s="14"/>
+      <c r="AR223" s="14"/>
+      <c r="AS223" s="14"/>
+      <c r="AT223" s="20"/>
       <c r="AU223" s="14"/>
       <c r="AV223" s="14"/>
       <c r="AW223" s="20"/>
     </row>
-    <row r="224" spans="4:49" ht="20" customHeight="1">
+    <row r="224" spans="4:49" s="1" customFormat="1">
       <c r="D224" s="19"/>
       <c r="E224" s="14"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="41"/>
-      <c r="J224" s="33"/>
-      <c r="K224" s="33"/>
-      <c r="L224" s="33"/>
-      <c r="M224" s="33"/>
-      <c r="N224" s="33"/>
-      <c r="O224" s="33"/>
-      <c r="P224" s="33"/>
-      <c r="Q224" s="33"/>
-      <c r="R224" s="33"/>
-      <c r="S224" s="33"/>
-      <c r="T224" s="33"/>
-      <c r="U224" s="33"/>
-      <c r="V224" s="33"/>
-      <c r="W224" s="33"/>
-      <c r="X224" s="33"/>
-      <c r="Y224" s="33"/>
-      <c r="Z224" s="33"/>
-      <c r="AA224" s="33"/>
-      <c r="AB224" s="33"/>
-      <c r="AC224" s="33"/>
-      <c r="AD224" s="33"/>
-      <c r="AE224" s="33"/>
-      <c r="AF224" s="33"/>
-      <c r="AG224" s="33"/>
-      <c r="AH224" s="33"/>
-      <c r="AI224" s="33"/>
-      <c r="AJ224" s="33"/>
-      <c r="AK224" s="33"/>
-      <c r="AL224" s="33"/>
-      <c r="AM224" s="33"/>
-      <c r="AN224" s="33"/>
-      <c r="AO224" s="33"/>
-      <c r="AP224" s="33"/>
-      <c r="AQ224" s="33"/>
-      <c r="AR224" s="33"/>
-      <c r="AS224" s="33"/>
-      <c r="AT224" s="33"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="14"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="14"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="14"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
+      <c r="Q224" s="14"/>
+      <c r="R224" s="14"/>
+      <c r="S224" s="14"/>
+      <c r="T224" s="14"/>
+      <c r="U224" s="14"/>
+      <c r="V224" s="14"/>
+      <c r="W224" s="14"/>
+      <c r="X224" s="14"/>
+      <c r="Y224" s="14"/>
+      <c r="Z224" s="14"/>
+      <c r="AA224" s="14"/>
+      <c r="AB224" s="14"/>
+      <c r="AC224" s="14"/>
+      <c r="AD224" s="14"/>
+      <c r="AE224" s="14"/>
+      <c r="AF224" s="14"/>
+      <c r="AG224" s="14"/>
+      <c r="AH224" s="14"/>
+      <c r="AI224" s="14"/>
+      <c r="AJ224" s="14"/>
+      <c r="AK224" s="14"/>
+      <c r="AL224" s="14"/>
+      <c r="AM224" s="14"/>
+      <c r="AN224" s="14"/>
+      <c r="AO224" s="14"/>
+      <c r="AP224" s="14"/>
+      <c r="AQ224" s="14"/>
+      <c r="AR224" s="14"/>
+      <c r="AS224" s="14"/>
+      <c r="AT224" s="20"/>
       <c r="AU224" s="14"/>
       <c r="AV224" s="14"/>
       <c r="AW224" s="20"/>
     </row>
-    <row r="225" spans="4:49" ht="20" customHeight="1">
+    <row r="225" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D225" s="19"/>
       <c r="E225" s="14"/>
-      <c r="F225" s="33"/>
+      <c r="F225" s="32"/>
       <c r="G225" s="33"/>
       <c r="H225" s="33"/>
-      <c r="I225" s="41"/>
-      <c r="J225" s="33"/>
-      <c r="K225" s="33"/>
+      <c r="I225" s="136" t="s">
+        <v>65</v>
+      </c>
+      <c r="J225" s="137"/>
+      <c r="K225" s="138"/>
       <c r="L225" s="33"/>
       <c r="M225" s="33"/>
       <c r="N225" s="33"/>
@@ -17991,9 +18170,6 @@
       <c r="U225" s="33"/>
       <c r="V225" s="33"/>
       <c r="W225" s="33"/>
-      <c r="X225" s="33"/>
-      <c r="Y225" s="33"/>
-      <c r="Z225" s="33"/>
       <c r="AA225" s="33"/>
       <c r="AB225" s="33"/>
       <c r="AC225" s="33"/>
@@ -18013,140 +18189,126 @@
       <c r="AQ225" s="33"/>
       <c r="AR225" s="33"/>
       <c r="AS225" s="33"/>
-      <c r="AT225" s="33"/>
+      <c r="AT225" s="34"/>
       <c r="AU225" s="14"/>
       <c r="AV225" s="14"/>
       <c r="AW225" s="20"/>
     </row>
-    <row r="226" spans="4:49" ht="20" customHeight="1">
+    <row r="226" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D226" s="19"/>
       <c r="E226" s="14"/>
-      <c r="F226" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G226" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="H226" s="97"/>
-      <c r="I226" s="98"/>
-      <c r="J226" s="98"/>
-      <c r="K226" s="98"/>
-      <c r="L226" s="98"/>
-      <c r="M226" s="98"/>
-      <c r="N226" s="98"/>
-      <c r="O226" s="98"/>
-      <c r="P226" s="98"/>
-      <c r="Q226" s="98"/>
-      <c r="R226" s="98"/>
-      <c r="S226" s="99"/>
-      <c r="T226" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="U226" s="98"/>
-      <c r="V226" s="98"/>
-      <c r="W226" s="98"/>
-      <c r="X226" s="98"/>
-      <c r="Y226" s="98"/>
-      <c r="Z226" s="98"/>
-      <c r="AA226" s="98"/>
-      <c r="AB226" s="98"/>
-      <c r="AC226" s="98"/>
-      <c r="AD226" s="98"/>
-      <c r="AE226" s="98"/>
-      <c r="AF226" s="98"/>
-      <c r="AG226" s="98"/>
-      <c r="AH226" s="98"/>
-      <c r="AI226" s="98"/>
-      <c r="AJ226" s="98"/>
-      <c r="AK226" s="98"/>
-      <c r="AL226" s="98"/>
-      <c r="AM226" s="98"/>
-      <c r="AN226" s="98"/>
-      <c r="AO226" s="98"/>
-      <c r="AP226" s="98"/>
-      <c r="AQ226" s="98"/>
-      <c r="AR226" s="98"/>
-      <c r="AS226" s="98"/>
-      <c r="AT226" s="99"/>
+      <c r="F226" s="35"/>
+      <c r="G226" s="37"/>
+      <c r="H226" s="37"/>
+      <c r="I226" s="78"/>
+      <c r="J226" s="37"/>
+      <c r="K226" s="37"/>
+      <c r="L226" s="37"/>
+      <c r="M226" s="37"/>
+      <c r="N226" s="37"/>
+      <c r="O226" s="37"/>
+      <c r="P226" s="37"/>
+      <c r="Q226" s="37"/>
+      <c r="R226" s="37"/>
+      <c r="S226" s="37"/>
+      <c r="T226" s="37"/>
+      <c r="U226" s="37"/>
+      <c r="V226" s="37"/>
+      <c r="W226" s="37"/>
+      <c r="X226" s="37"/>
+      <c r="Y226" s="37"/>
+      <c r="Z226" s="37"/>
+      <c r="AA226" s="37"/>
+      <c r="AB226" s="37"/>
+      <c r="AC226" s="37"/>
+      <c r="AD226" s="37"/>
+      <c r="AE226" s="37"/>
+      <c r="AF226" s="37"/>
+      <c r="AG226" s="37"/>
+      <c r="AH226" s="37"/>
+      <c r="AI226" s="37"/>
+      <c r="AJ226" s="37"/>
+      <c r="AK226" s="37"/>
+      <c r="AL226" s="37"/>
+      <c r="AM226" s="37"/>
+      <c r="AN226" s="37"/>
+      <c r="AO226" s="37"/>
+      <c r="AP226" s="37"/>
+      <c r="AQ226" s="37"/>
+      <c r="AR226" s="37"/>
+      <c r="AS226" s="37"/>
+      <c r="AT226" s="36"/>
       <c r="AU226" s="14"/>
       <c r="AV226" s="14"/>
       <c r="AW226" s="20"/>
     </row>
-    <row r="227" spans="4:49" ht="20" customHeight="1">
+    <row r="227" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D227" s="19"/>
       <c r="E227" s="14"/>
-      <c r="F227" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G227" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="30"/>
-      <c r="Q227" s="30"/>
-      <c r="R227" s="30"/>
-      <c r="S227" s="31"/>
-      <c r="T227" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="U227" s="90"/>
-      <c r="V227" s="30"/>
-      <c r="W227" s="30"/>
-      <c r="X227" s="30"/>
-      <c r="Y227" s="30"/>
-      <c r="Z227" s="30"/>
-      <c r="AA227" s="30"/>
-      <c r="AB227" s="30"/>
-      <c r="AC227" s="30"/>
-      <c r="AD227" s="30"/>
-      <c r="AE227" s="30"/>
-      <c r="AF227" s="30"/>
-      <c r="AG227" s="30"/>
-      <c r="AH227" s="30"/>
-      <c r="AI227" s="30"/>
-      <c r="AJ227" s="30"/>
-      <c r="AK227" s="30"/>
-      <c r="AL227" s="30"/>
-      <c r="AM227" s="30"/>
-      <c r="AN227" s="30"/>
-      <c r="AO227" s="30"/>
-      <c r="AP227" s="30"/>
-      <c r="AQ227" s="30"/>
-      <c r="AR227" s="30"/>
-      <c r="AS227" s="30"/>
-      <c r="AT227" s="31"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="41"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="33"/>
+      <c r="L227" s="33"/>
+      <c r="M227" s="33"/>
+      <c r="N227" s="33"/>
+      <c r="O227" s="33"/>
+      <c r="P227" s="33"/>
+      <c r="Q227" s="33"/>
+      <c r="R227" s="33"/>
+      <c r="S227" s="33"/>
+      <c r="T227" s="33"/>
+      <c r="U227" s="33"/>
+      <c r="V227" s="33"/>
+      <c r="W227" s="33"/>
+      <c r="X227" s="33"/>
+      <c r="Y227" s="33"/>
+      <c r="Z227" s="33"/>
+      <c r="AA227" s="33"/>
+      <c r="AB227" s="33"/>
+      <c r="AC227" s="33"/>
+      <c r="AD227" s="33"/>
+      <c r="AE227" s="33"/>
+      <c r="AF227" s="33"/>
+      <c r="AG227" s="33"/>
+      <c r="AH227" s="33"/>
+      <c r="AI227" s="33"/>
+      <c r="AJ227" s="33"/>
+      <c r="AK227" s="33"/>
+      <c r="AL227" s="33"/>
+      <c r="AM227" s="33"/>
+      <c r="AN227" s="33"/>
+      <c r="AO227" s="33"/>
+      <c r="AP227" s="33"/>
+      <c r="AQ227" s="33"/>
+      <c r="AR227" s="33"/>
+      <c r="AS227" s="33"/>
+      <c r="AT227" s="33"/>
       <c r="AU227" s="14"/>
       <c r="AV227" s="14"/>
       <c r="AW227" s="20"/>
     </row>
-    <row r="228" spans="4:49" ht="20" customHeight="1">
+    <row r="228" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D228" s="19"/>
       <c r="E228" s="14"/>
-      <c r="F228" s="93"/>
-      <c r="G228" s="32"/>
-      <c r="H228" s="14"/>
-      <c r="I228" s="14"/>
-      <c r="J228" s="14"/>
-      <c r="K228" s="14"/>
-      <c r="L228" s="14"/>
-      <c r="M228" s="14"/>
-      <c r="N228" s="14"/>
-      <c r="O228" s="14"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="41"/>
+      <c r="J228" s="33"/>
+      <c r="K228" s="33"/>
+      <c r="L228" s="33"/>
+      <c r="M228" s="33"/>
+      <c r="N228" s="33"/>
+      <c r="O228" s="33"/>
       <c r="P228" s="33"/>
       <c r="Q228" s="33"/>
       <c r="R228" s="33"/>
-      <c r="S228" s="34"/>
-      <c r="T228" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="U228" s="41"/>
+      <c r="S228" s="33"/>
+      <c r="T228" s="33"/>
+      <c r="U228" s="33"/>
       <c r="V228" s="33"/>
       <c r="W228" s="33"/>
       <c r="X228" s="33"/>
@@ -18171,132 +18333,140 @@
       <c r="AQ228" s="33"/>
       <c r="AR228" s="33"/>
       <c r="AS228" s="33"/>
-      <c r="AT228" s="34"/>
+      <c r="AT228" s="33"/>
       <c r="AU228" s="14"/>
       <c r="AV228" s="14"/>
       <c r="AW228" s="20"/>
     </row>
-    <row r="229" spans="4:49" ht="20" customHeight="1">
+    <row r="229" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D229" s="19"/>
       <c r="E229" s="14"/>
-      <c r="F229" s="93"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="14"/>
-      <c r="I229" s="14"/>
-      <c r="J229" s="14"/>
-      <c r="K229" s="14"/>
-      <c r="L229" s="14"/>
-      <c r="M229" s="14"/>
-      <c r="N229" s="14"/>
-      <c r="O229" s="14"/>
-      <c r="P229" s="33"/>
-      <c r="Q229" s="33"/>
-      <c r="R229" s="33"/>
-      <c r="S229" s="34"/>
-      <c r="T229" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="U229" s="41"/>
-      <c r="V229" s="33"/>
-      <c r="W229" s="33"/>
-      <c r="X229" s="33"/>
-      <c r="Y229" s="33"/>
-      <c r="Z229" s="33"/>
-      <c r="AA229" s="33"/>
-      <c r="AB229" s="33"/>
-      <c r="AC229" s="33"/>
-      <c r="AD229" s="33"/>
-      <c r="AE229" s="33"/>
-      <c r="AF229" s="33"/>
-      <c r="AG229" s="33"/>
-      <c r="AH229" s="33"/>
-      <c r="AI229" s="33"/>
-      <c r="AJ229" s="33"/>
-      <c r="AK229" s="33"/>
-      <c r="AL229" s="33"/>
-      <c r="AM229" s="33"/>
-      <c r="AN229" s="33"/>
-      <c r="AO229" s="33"/>
-      <c r="AP229" s="33"/>
-      <c r="AQ229" s="33"/>
-      <c r="AR229" s="33"/>
-      <c r="AS229" s="33"/>
-      <c r="AT229" s="34"/>
+      <c r="F229" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="G229" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="H229" s="97"/>
+      <c r="I229" s="98"/>
+      <c r="J229" s="98"/>
+      <c r="K229" s="98"/>
+      <c r="L229" s="98"/>
+      <c r="M229" s="98"/>
+      <c r="N229" s="98"/>
+      <c r="O229" s="98"/>
+      <c r="P229" s="98"/>
+      <c r="Q229" s="98"/>
+      <c r="R229" s="98"/>
+      <c r="S229" s="99"/>
+      <c r="T229" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="U229" s="98"/>
+      <c r="V229" s="98"/>
+      <c r="W229" s="98"/>
+      <c r="X229" s="98"/>
+      <c r="Y229" s="98"/>
+      <c r="Z229" s="98"/>
+      <c r="AA229" s="98"/>
+      <c r="AB229" s="98"/>
+      <c r="AC229" s="98"/>
+      <c r="AD229" s="98"/>
+      <c r="AE229" s="98"/>
+      <c r="AF229" s="98"/>
+      <c r="AG229" s="98"/>
+      <c r="AH229" s="98"/>
+      <c r="AI229" s="98"/>
+      <c r="AJ229" s="98"/>
+      <c r="AK229" s="98"/>
+      <c r="AL229" s="98"/>
+      <c r="AM229" s="98"/>
+      <c r="AN229" s="98"/>
+      <c r="AO229" s="98"/>
+      <c r="AP229" s="98"/>
+      <c r="AQ229" s="98"/>
+      <c r="AR229" s="98"/>
+      <c r="AS229" s="98"/>
+      <c r="AT229" s="99"/>
       <c r="AU229" s="14"/>
       <c r="AV229" s="14"/>
       <c r="AW229" s="20"/>
     </row>
-    <row r="230" spans="4:49" ht="20" customHeight="1">
+    <row r="230" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D230" s="19"/>
       <c r="E230" s="14"/>
-      <c r="F230" s="93"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="14"/>
-      <c r="I230" s="14"/>
-      <c r="J230" s="14"/>
-      <c r="K230" s="14"/>
-      <c r="L230" s="14"/>
-      <c r="M230" s="14"/>
-      <c r="N230" s="14"/>
-      <c r="O230" s="14"/>
-      <c r="P230" s="33"/>
-      <c r="Q230" s="33"/>
-      <c r="R230" s="33"/>
-      <c r="S230" s="34"/>
-      <c r="T230" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="U230" s="41"/>
-      <c r="V230" s="33"/>
-      <c r="W230" s="33"/>
-      <c r="X230" s="33"/>
-      <c r="Y230" s="33"/>
-      <c r="Z230" s="33"/>
-      <c r="AA230" s="33"/>
-      <c r="AB230" s="33"/>
-      <c r="AC230" s="33"/>
-      <c r="AD230" s="33"/>
-      <c r="AE230" s="33"/>
-      <c r="AF230" s="33"/>
-      <c r="AG230" s="33"/>
-      <c r="AH230" s="33"/>
-      <c r="AI230" s="33"/>
-      <c r="AJ230" s="33"/>
-      <c r="AK230" s="33"/>
-      <c r="AL230" s="33"/>
-      <c r="AM230" s="33"/>
-      <c r="AN230" s="33"/>
-      <c r="AO230" s="33"/>
-      <c r="AP230" s="33"/>
-      <c r="AQ230" s="33"/>
-      <c r="AR230" s="33"/>
-      <c r="AS230" s="33"/>
-      <c r="AT230" s="34"/>
+      <c r="F230" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="G230" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="H230" s="90"/>
+      <c r="I230" s="30"/>
+      <c r="J230" s="30"/>
+      <c r="K230" s="30"/>
+      <c r="L230" s="30"/>
+      <c r="M230" s="30"/>
+      <c r="N230" s="30"/>
+      <c r="O230" s="30"/>
+      <c r="P230" s="30"/>
+      <c r="Q230" s="30"/>
+      <c r="R230" s="30"/>
+      <c r="S230" s="31"/>
+      <c r="T230" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="U230" s="30"/>
+      <c r="V230" s="30"/>
+      <c r="W230" s="30"/>
+      <c r="X230" s="30"/>
+      <c r="Y230" s="30"/>
+      <c r="Z230" s="30"/>
+      <c r="AA230" s="30"/>
+      <c r="AB230" s="30"/>
+      <c r="AC230" s="30"/>
+      <c r="AD230" s="30"/>
+      <c r="AE230" s="30"/>
+      <c r="AF230" s="30"/>
+      <c r="AG230" s="30"/>
+      <c r="AH230" s="30"/>
+      <c r="AI230" s="30"/>
+      <c r="AJ230" s="30"/>
+      <c r="AK230" s="30"/>
+      <c r="AL230" s="30"/>
+      <c r="AM230" s="30"/>
+      <c r="AN230" s="30"/>
+      <c r="AO230" s="30"/>
+      <c r="AP230" s="30"/>
+      <c r="AQ230" s="30"/>
+      <c r="AR230" s="30"/>
+      <c r="AS230" s="30"/>
+      <c r="AT230" s="31"/>
       <c r="AU230" s="14"/>
       <c r="AV230" s="14"/>
       <c r="AW230" s="20"/>
     </row>
-    <row r="231" spans="4:49" ht="20" customHeight="1">
+    <row r="231" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D231" s="19"/>
       <c r="E231" s="14"/>
       <c r="F231" s="93"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="14"/>
-      <c r="I231" s="14"/>
-      <c r="J231" s="14"/>
-      <c r="K231" s="14"/>
-      <c r="L231" s="14"/>
-      <c r="M231" s="14"/>
-      <c r="N231" s="14"/>
-      <c r="O231" s="14"/>
+      <c r="G231" s="32"/>
+      <c r="H231" s="41"/>
+      <c r="I231" s="33"/>
+      <c r="J231" s="33"/>
+      <c r="K231" s="33"/>
+      <c r="L231" s="33"/>
+      <c r="M231" s="33"/>
+      <c r="N231" s="33"/>
+      <c r="O231" s="33"/>
       <c r="P231" s="33"/>
       <c r="Q231" s="33"/>
       <c r="R231" s="33"/>
       <c r="S231" s="34"/>
       <c r="T231" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="U231" s="41"/>
+        <v>63</v>
+      </c>
+      <c r="U231" s="33"/>
       <c r="V231" s="33"/>
       <c r="W231" s="33"/>
       <c r="X231" s="33"/>
@@ -18326,27 +18496,27 @@
       <c r="AV231" s="14"/>
       <c r="AW231" s="20"/>
     </row>
-    <row r="232" spans="4:49" ht="20" customHeight="1">
+    <row r="232" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D232" s="19"/>
       <c r="E232" s="14"/>
       <c r="F232" s="93"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="14"/>
-      <c r="I232" s="14"/>
-      <c r="J232" s="14"/>
-      <c r="K232" s="14"/>
-      <c r="L232" s="14"/>
-      <c r="M232" s="14"/>
-      <c r="N232" s="14"/>
-      <c r="O232" s="14"/>
+      <c r="G232" s="32"/>
+      <c r="H232" s="41"/>
+      <c r="I232" s="33"/>
+      <c r="J232" s="33"/>
+      <c r="K232" s="33"/>
+      <c r="L232" s="33"/>
+      <c r="M232" s="33"/>
+      <c r="N232" s="33"/>
+      <c r="O232" s="33"/>
       <c r="P232" s="33"/>
       <c r="Q232" s="33"/>
       <c r="R232" s="33"/>
       <c r="S232" s="34"/>
-      <c r="T232" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="U232" s="41"/>
+      <c r="T232" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="U232" s="33"/>
       <c r="V232" s="33"/>
       <c r="W232" s="33"/>
       <c r="X232" s="33"/>
@@ -18376,27 +18546,27 @@
       <c r="AV232" s="14"/>
       <c r="AW232" s="20"/>
     </row>
-    <row r="233" spans="4:49" ht="20" customHeight="1">
+    <row r="233" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D233" s="19"/>
       <c r="E233" s="14"/>
       <c r="F233" s="93"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="14"/>
-      <c r="I233" s="14"/>
-      <c r="J233" s="14"/>
-      <c r="K233" s="14"/>
-      <c r="L233" s="14"/>
-      <c r="M233" s="14"/>
-      <c r="N233" s="14"/>
-      <c r="O233" s="14"/>
+      <c r="G233" s="32"/>
+      <c r="H233" s="41"/>
+      <c r="I233" s="33"/>
+      <c r="J233" s="33"/>
+      <c r="K233" s="33"/>
+      <c r="L233" s="33"/>
+      <c r="M233" s="33"/>
+      <c r="N233" s="33"/>
+      <c r="O233" s="33"/>
       <c r="P233" s="33"/>
       <c r="Q233" s="33"/>
       <c r="R233" s="33"/>
       <c r="S233" s="34"/>
-      <c r="T233" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="U233" s="41"/>
+      <c r="T233" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="U233" s="33"/>
       <c r="V233" s="33"/>
       <c r="W233" s="33"/>
       <c r="X233" s="33"/>
@@ -18426,27 +18596,27 @@
       <c r="AV233" s="14"/>
       <c r="AW233" s="20"/>
     </row>
-    <row r="234" spans="4:49" ht="20" customHeight="1">
+    <row r="234" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D234" s="19"/>
       <c r="E234" s="14"/>
       <c r="F234" s="93"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="14"/>
-      <c r="I234" s="14"/>
-      <c r="J234" s="14"/>
-      <c r="K234" s="14"/>
-      <c r="L234" s="14"/>
-      <c r="M234" s="14"/>
-      <c r="N234" s="14"/>
-      <c r="O234" s="14"/>
+      <c r="G234" s="32"/>
+      <c r="H234" s="41"/>
+      <c r="I234" s="33"/>
+      <c r="J234" s="33"/>
+      <c r="K234" s="33"/>
+      <c r="L234" s="33"/>
+      <c r="M234" s="33"/>
+      <c r="N234" s="33"/>
+      <c r="O234" s="33"/>
       <c r="P234" s="33"/>
       <c r="Q234" s="33"/>
       <c r="R234" s="33"/>
       <c r="S234" s="34"/>
-      <c r="T234" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="U234" s="41"/>
+      <c r="T234" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="U234" s="33"/>
       <c r="V234" s="33"/>
       <c r="W234" s="33"/>
       <c r="X234" s="33"/>
@@ -18476,27 +18646,27 @@
       <c r="AV234" s="14"/>
       <c r="AW234" s="20"/>
     </row>
-    <row r="235" spans="4:49" ht="20" customHeight="1">
+    <row r="235" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D235" s="19"/>
       <c r="E235" s="14"/>
       <c r="F235" s="93"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="14"/>
-      <c r="I235" s="14"/>
-      <c r="J235" s="14"/>
-      <c r="K235" s="14"/>
-      <c r="L235" s="14"/>
-      <c r="M235" s="14"/>
-      <c r="N235" s="14"/>
-      <c r="O235" s="14"/>
+      <c r="G235" s="32"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="33"/>
+      <c r="J235" s="33"/>
+      <c r="K235" s="33"/>
+      <c r="L235" s="33"/>
+      <c r="M235" s="33"/>
+      <c r="N235" s="33"/>
+      <c r="O235" s="33"/>
       <c r="P235" s="33"/>
       <c r="Q235" s="33"/>
       <c r="R235" s="33"/>
       <c r="S235" s="34"/>
-      <c r="T235" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="U235" s="41"/>
+      <c r="T235" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="U235" s="33"/>
       <c r="V235" s="33"/>
       <c r="W235" s="33"/>
       <c r="X235" s="33"/>
@@ -18526,7 +18696,7 @@
       <c r="AV235" s="14"/>
       <c r="AW235" s="20"/>
     </row>
-    <row r="236" spans="4:49" ht="20" customHeight="1">
+    <row r="236" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D236" s="19"/>
       <c r="E236" s="14"/>
       <c r="F236" s="93"/>
@@ -18543,8 +18713,8 @@
       <c r="Q236" s="33"/>
       <c r="R236" s="33"/>
       <c r="S236" s="34"/>
-      <c r="T236" s="32" t="s">
-        <v>162</v>
+      <c r="T236" s="91" t="s">
+        <v>50</v>
       </c>
       <c r="U236" s="41"/>
       <c r="V236" s="33"/>
@@ -18576,7 +18746,7 @@
       <c r="AV236" s="14"/>
       <c r="AW236" s="20"/>
     </row>
-    <row r="237" spans="4:49" ht="20" customHeight="1">
+    <row r="237" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D237" s="19"/>
       <c r="E237" s="14"/>
       <c r="F237" s="93"/>
@@ -18593,9 +18763,7 @@
       <c r="Q237" s="33"/>
       <c r="R237" s="33"/>
       <c r="S237" s="34"/>
-      <c r="T237" s="32" t="s">
-        <v>161</v>
-      </c>
+      <c r="T237" s="91"/>
       <c r="U237" s="41"/>
       <c r="V237" s="33"/>
       <c r="W237" s="33"/>
@@ -18626,7 +18794,7 @@
       <c r="AV237" s="14"/>
       <c r="AW237" s="20"/>
     </row>
-    <row r="238" spans="4:49" ht="20" customHeight="1">
+    <row r="238" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D238" s="19"/>
       <c r="E238" s="14"/>
       <c r="F238" s="93"/>
@@ -18643,10 +18811,10 @@
       <c r="Q238" s="33"/>
       <c r="R238" s="33"/>
       <c r="S238" s="34"/>
-      <c r="T238" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="U238" s="41"/>
+      <c r="T238" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="U238" s="146"/>
       <c r="V238" s="33"/>
       <c r="W238" s="33"/>
       <c r="X238" s="33"/>
@@ -18676,173 +18844,179 @@
       <c r="AV238" s="14"/>
       <c r="AW238" s="20"/>
     </row>
-    <row r="239" spans="4:49" ht="20" customHeight="1">
+    <row r="239" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D239" s="19"/>
       <c r="E239" s="14"/>
-      <c r="F239" s="94"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="78"/>
-      <c r="I239" s="37"/>
-      <c r="J239" s="37"/>
-      <c r="K239" s="37"/>
-      <c r="L239" s="37"/>
-      <c r="M239" s="37"/>
-      <c r="N239" s="37"/>
-      <c r="O239" s="37"/>
-      <c r="P239" s="37"/>
-      <c r="Q239" s="37"/>
-      <c r="R239" s="37"/>
-      <c r="S239" s="36"/>
-      <c r="T239" s="35"/>
-      <c r="U239" s="37"/>
-      <c r="V239" s="37"/>
-      <c r="W239" s="37"/>
-      <c r="X239" s="37"/>
-      <c r="Y239" s="37"/>
-      <c r="Z239" s="37"/>
-      <c r="AA239" s="37"/>
-      <c r="AB239" s="37"/>
-      <c r="AC239" s="37"/>
-      <c r="AD239" s="37"/>
-      <c r="AE239" s="37"/>
-      <c r="AF239" s="37"/>
-      <c r="AG239" s="37"/>
-      <c r="AH239" s="37"/>
-      <c r="AI239" s="37"/>
-      <c r="AJ239" s="37"/>
-      <c r="AK239" s="37"/>
-      <c r="AL239" s="37"/>
-      <c r="AM239" s="37"/>
-      <c r="AN239" s="37"/>
-      <c r="AO239" s="37"/>
-      <c r="AP239" s="37"/>
-      <c r="AQ239" s="37"/>
-      <c r="AR239" s="37"/>
-      <c r="AS239" s="37"/>
-      <c r="AT239" s="36"/>
+      <c r="F239" s="93"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="14"/>
+      <c r="N239" s="14"/>
+      <c r="O239" s="14"/>
+      <c r="P239" s="33"/>
+      <c r="Q239" s="33"/>
+      <c r="R239" s="33"/>
+      <c r="S239" s="34"/>
+      <c r="T239" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="U239" s="146"/>
+      <c r="V239" s="33"/>
+      <c r="W239" s="33"/>
+      <c r="X239" s="33"/>
+      <c r="Y239" s="33"/>
+      <c r="Z239" s="33"/>
+      <c r="AA239" s="33"/>
+      <c r="AB239" s="33"/>
+      <c r="AC239" s="33"/>
+      <c r="AD239" s="33"/>
+      <c r="AE239" s="33"/>
+      <c r="AF239" s="33"/>
+      <c r="AG239" s="33"/>
+      <c r="AH239" s="33"/>
+      <c r="AI239" s="33"/>
+      <c r="AJ239" s="33"/>
+      <c r="AK239" s="33"/>
+      <c r="AL239" s="33"/>
+      <c r="AM239" s="33"/>
+      <c r="AN239" s="33"/>
+      <c r="AO239" s="33"/>
+      <c r="AP239" s="33"/>
+      <c r="AQ239" s="33"/>
+      <c r="AR239" s="33"/>
+      <c r="AS239" s="33"/>
+      <c r="AT239" s="34"/>
       <c r="AU239" s="14"/>
       <c r="AV239" s="14"/>
       <c r="AW239" s="20"/>
     </row>
-    <row r="240" spans="4:49" ht="20" customHeight="1">
+    <row r="240" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D240" s="19"/>
       <c r="E240" s="14"/>
-      <c r="F240" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G240" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H240" s="90"/>
-      <c r="I240" s="30"/>
-      <c r="J240" s="30"/>
-      <c r="K240" s="30"/>
-      <c r="L240" s="30"/>
-      <c r="M240" s="30"/>
-      <c r="N240" s="30"/>
-      <c r="O240" s="30"/>
-      <c r="P240" s="30"/>
-      <c r="Q240" s="30"/>
-      <c r="R240" s="30"/>
-      <c r="S240" s="31"/>
-      <c r="T240" s="29"/>
-      <c r="U240" s="30"/>
-      <c r="V240" s="30"/>
-      <c r="W240" s="30"/>
-      <c r="X240" s="30"/>
-      <c r="Y240" s="30"/>
-      <c r="Z240" s="30"/>
-      <c r="AA240" s="30"/>
-      <c r="AB240" s="30"/>
-      <c r="AC240" s="30"/>
-      <c r="AD240" s="30"/>
-      <c r="AE240" s="30"/>
-      <c r="AF240" s="30"/>
-      <c r="AG240" s="30"/>
-      <c r="AH240" s="30"/>
-      <c r="AI240" s="30"/>
-      <c r="AJ240" s="30"/>
-      <c r="AK240" s="30"/>
-      <c r="AL240" s="30"/>
-      <c r="AM240" s="30"/>
-      <c r="AN240" s="30"/>
-      <c r="AO240" s="30"/>
-      <c r="AP240" s="30"/>
-      <c r="AQ240" s="30"/>
-      <c r="AR240" s="30"/>
-      <c r="AS240" s="30"/>
-      <c r="AT240" s="31"/>
+      <c r="F240" s="94"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="37"/>
+      <c r="I240" s="78"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="37"/>
+      <c r="L240" s="37"/>
+      <c r="M240" s="37"/>
+      <c r="N240" s="37"/>
+      <c r="O240" s="37"/>
+      <c r="P240" s="37"/>
+      <c r="Q240" s="37"/>
+      <c r="R240" s="37"/>
+      <c r="S240" s="36"/>
+      <c r="T240" s="35"/>
+      <c r="U240" s="37"/>
+      <c r="V240" s="37"/>
+      <c r="W240" s="37"/>
+      <c r="X240" s="37"/>
+      <c r="Y240" s="37"/>
+      <c r="Z240" s="37"/>
+      <c r="AA240" s="37"/>
+      <c r="AB240" s="37"/>
+      <c r="AC240" s="37"/>
+      <c r="AD240" s="37"/>
+      <c r="AE240" s="37"/>
+      <c r="AF240" s="37"/>
+      <c r="AG240" s="37"/>
+      <c r="AH240" s="37"/>
+      <c r="AI240" s="37"/>
+      <c r="AJ240" s="37"/>
+      <c r="AK240" s="37"/>
+      <c r="AL240" s="37"/>
+      <c r="AM240" s="37"/>
+      <c r="AN240" s="37"/>
+      <c r="AO240" s="37"/>
+      <c r="AP240" s="37"/>
+      <c r="AQ240" s="37"/>
+      <c r="AR240" s="37"/>
+      <c r="AS240" s="37"/>
+      <c r="AT240" s="36"/>
       <c r="AU240" s="14"/>
       <c r="AV240" s="14"/>
       <c r="AW240" s="20"/>
     </row>
-    <row r="241" spans="4:49" ht="20" customHeight="1">
+    <row r="241" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D241" s="19"/>
       <c r="E241" s="14"/>
-      <c r="F241" s="93"/>
-      <c r="G241" s="32"/>
-      <c r="H241" s="41"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="33"/>
-      <c r="K241" s="33"/>
-      <c r="L241" s="33"/>
-      <c r="M241" s="33"/>
-      <c r="N241" s="33"/>
-      <c r="O241" s="33"/>
-      <c r="P241" s="33"/>
-      <c r="Q241" s="33"/>
-      <c r="R241" s="33"/>
-      <c r="S241" s="34"/>
-      <c r="T241" s="32"/>
-      <c r="U241" s="33"/>
-      <c r="V241" s="33"/>
-      <c r="W241" s="33"/>
-      <c r="X241" s="33"/>
-      <c r="Y241" s="33"/>
-      <c r="Z241" s="33"/>
-      <c r="AA241" s="33"/>
-      <c r="AB241" s="33"/>
-      <c r="AC241" s="33"/>
-      <c r="AD241" s="33"/>
-      <c r="AE241" s="33"/>
-      <c r="AF241" s="33"/>
-      <c r="AG241" s="33"/>
-      <c r="AH241" s="33"/>
-      <c r="AI241" s="33"/>
-      <c r="AJ241" s="33"/>
-      <c r="AK241" s="33"/>
-      <c r="AL241" s="33"/>
-      <c r="AM241" s="33"/>
-      <c r="AN241" s="33"/>
-      <c r="AO241" s="33"/>
-      <c r="AP241" s="33"/>
-      <c r="AQ241" s="33"/>
-      <c r="AR241" s="33"/>
-      <c r="AS241" s="33"/>
-      <c r="AT241" s="34"/>
+      <c r="F241" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="G241" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="30"/>
+      <c r="Q241" s="30"/>
+      <c r="R241" s="30"/>
+      <c r="S241" s="31"/>
+      <c r="T241" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="U241" s="90"/>
+      <c r="V241" s="30"/>
+      <c r="W241" s="30"/>
+      <c r="X241" s="30"/>
+      <c r="Y241" s="30"/>
+      <c r="Z241" s="30"/>
+      <c r="AA241" s="30"/>
+      <c r="AB241" s="30"/>
+      <c r="AC241" s="30"/>
+      <c r="AD241" s="30"/>
+      <c r="AE241" s="30"/>
+      <c r="AF241" s="30"/>
+      <c r="AG241" s="30"/>
+      <c r="AH241" s="30"/>
+      <c r="AI241" s="30"/>
+      <c r="AJ241" s="30"/>
+      <c r="AK241" s="30"/>
+      <c r="AL241" s="30"/>
+      <c r="AM241" s="30"/>
+      <c r="AN241" s="30"/>
+      <c r="AO241" s="30"/>
+      <c r="AP241" s="30"/>
+      <c r="AQ241" s="30"/>
+      <c r="AR241" s="30"/>
+      <c r="AS241" s="30"/>
+      <c r="AT241" s="31"/>
       <c r="AU241" s="14"/>
       <c r="AV241" s="14"/>
       <c r="AW241" s="20"/>
     </row>
-    <row r="242" spans="4:49" ht="20" customHeight="1">
+    <row r="242" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D242" s="19"/>
       <c r="E242" s="14"/>
       <c r="F242" s="93"/>
       <c r="G242" s="32"/>
-      <c r="H242" s="41"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="33"/>
-      <c r="K242" s="33"/>
-      <c r="L242" s="33"/>
-      <c r="M242" s="33"/>
-      <c r="N242" s="33"/>
-      <c r="O242" s="33"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="14"/>
+      <c r="N242" s="14"/>
+      <c r="O242" s="14"/>
       <c r="P242" s="33"/>
       <c r="Q242" s="33"/>
       <c r="R242" s="33"/>
       <c r="S242" s="34"/>
-      <c r="T242" s="32"/>
-      <c r="U242" s="33"/>
+      <c r="T242" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="U242" s="41"/>
       <c r="V242" s="33"/>
       <c r="W242" s="33"/>
       <c r="X242" s="33"/>
@@ -18872,25 +19046,27 @@
       <c r="AV242" s="14"/>
       <c r="AW242" s="20"/>
     </row>
-    <row r="243" spans="4:49" ht="20" customHeight="1">
+    <row r="243" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D243" s="19"/>
       <c r="E243" s="14"/>
       <c r="F243" s="93"/>
-      <c r="G243" s="32"/>
-      <c r="H243" s="41"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="33"/>
-      <c r="K243" s="33"/>
-      <c r="L243" s="33"/>
-      <c r="M243" s="33"/>
-      <c r="N243" s="33"/>
-      <c r="O243" s="33"/>
+      <c r="G243" s="19"/>
+      <c r="H243" s="14"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="14"/>
+      <c r="N243" s="14"/>
+      <c r="O243" s="14"/>
       <c r="P243" s="33"/>
       <c r="Q243" s="33"/>
       <c r="R243" s="33"/>
       <c r="S243" s="34"/>
-      <c r="T243" s="32"/>
-      <c r="U243" s="33"/>
+      <c r="T243" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="U243" s="41"/>
       <c r="V243" s="33"/>
       <c r="W243" s="33"/>
       <c r="X243" s="33"/>
@@ -18920,125 +19096,127 @@
       <c r="AV243" s="14"/>
       <c r="AW243" s="20"/>
     </row>
-    <row r="244" spans="4:49" ht="20" customHeight="1">
+    <row r="244" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D244" s="19"/>
       <c r="E244" s="14"/>
-      <c r="F244" s="94"/>
-      <c r="G244" s="35"/>
-      <c r="H244" s="37"/>
-      <c r="I244" s="78"/>
-      <c r="J244" s="37"/>
-      <c r="K244" s="37"/>
-      <c r="L244" s="37"/>
-      <c r="M244" s="37"/>
-      <c r="N244" s="37"/>
-      <c r="O244" s="37"/>
-      <c r="P244" s="37"/>
-      <c r="Q244" s="37"/>
-      <c r="R244" s="37"/>
-      <c r="S244" s="36"/>
-      <c r="T244" s="35"/>
-      <c r="U244" s="37"/>
-      <c r="V244" s="37"/>
-      <c r="W244" s="37"/>
-      <c r="X244" s="37"/>
-      <c r="Y244" s="37"/>
-      <c r="Z244" s="37"/>
-      <c r="AA244" s="37"/>
-      <c r="AB244" s="37"/>
-      <c r="AC244" s="37"/>
-      <c r="AD244" s="37"/>
-      <c r="AE244" s="37"/>
-      <c r="AF244" s="37"/>
-      <c r="AG244" s="37"/>
-      <c r="AH244" s="37"/>
-      <c r="AI244" s="37"/>
-      <c r="AJ244" s="37"/>
-      <c r="AK244" s="37"/>
-      <c r="AL244" s="37"/>
-      <c r="AM244" s="37"/>
-      <c r="AN244" s="37"/>
-      <c r="AO244" s="37"/>
-      <c r="AP244" s="37"/>
-      <c r="AQ244" s="37"/>
-      <c r="AR244" s="37"/>
-      <c r="AS244" s="37"/>
-      <c r="AT244" s="36"/>
+      <c r="F244" s="93"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="14"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="14"/>
+      <c r="N244" s="14"/>
+      <c r="O244" s="14"/>
+      <c r="P244" s="33"/>
+      <c r="Q244" s="33"/>
+      <c r="R244" s="33"/>
+      <c r="S244" s="34"/>
+      <c r="T244" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="U244" s="41"/>
+      <c r="V244" s="33"/>
+      <c r="W244" s="33"/>
+      <c r="X244" s="33"/>
+      <c r="Y244" s="33"/>
+      <c r="Z244" s="33"/>
+      <c r="AA244" s="33"/>
+      <c r="AB244" s="33"/>
+      <c r="AC244" s="33"/>
+      <c r="AD244" s="33"/>
+      <c r="AE244" s="33"/>
+      <c r="AF244" s="33"/>
+      <c r="AG244" s="33"/>
+      <c r="AH244" s="33"/>
+      <c r="AI244" s="33"/>
+      <c r="AJ244" s="33"/>
+      <c r="AK244" s="33"/>
+      <c r="AL244" s="33"/>
+      <c r="AM244" s="33"/>
+      <c r="AN244" s="33"/>
+      <c r="AO244" s="33"/>
+      <c r="AP244" s="33"/>
+      <c r="AQ244" s="33"/>
+      <c r="AR244" s="33"/>
+      <c r="AS244" s="33"/>
+      <c r="AT244" s="34"/>
       <c r="AU244" s="14"/>
       <c r="AV244" s="14"/>
       <c r="AW244" s="20"/>
     </row>
-    <row r="245" spans="4:49" ht="20" customHeight="1">
+    <row r="245" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D245" s="19"/>
       <c r="E245" s="14"/>
-      <c r="F245" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="G245" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="H245" s="90"/>
-      <c r="I245" s="30"/>
-      <c r="J245" s="30"/>
-      <c r="K245" s="30"/>
-      <c r="L245" s="30"/>
-      <c r="M245" s="30"/>
-      <c r="N245" s="30"/>
-      <c r="O245" s="30"/>
-      <c r="P245" s="30"/>
-      <c r="Q245" s="30"/>
-      <c r="R245" s="30"/>
-      <c r="S245" s="31"/>
-      <c r="T245" s="29"/>
-      <c r="U245" s="30"/>
-      <c r="V245" s="30"/>
-      <c r="W245" s="30"/>
-      <c r="X245" s="30"/>
-      <c r="Y245" s="30"/>
-      <c r="Z245" s="30"/>
-      <c r="AA245" s="30"/>
-      <c r="AB245" s="30"/>
-      <c r="AC245" s="30"/>
-      <c r="AD245" s="30"/>
-      <c r="AE245" s="30"/>
-      <c r="AF245" s="30"/>
-      <c r="AG245" s="30"/>
-      <c r="AH245" s="30"/>
-      <c r="AI245" s="30"/>
-      <c r="AJ245" s="30"/>
-      <c r="AK245" s="30"/>
-      <c r="AL245" s="30"/>
-      <c r="AM245" s="30"/>
-      <c r="AN245" s="30"/>
-      <c r="AO245" s="30"/>
-      <c r="AP245" s="30"/>
-      <c r="AQ245" s="30"/>
-      <c r="AR245" s="30"/>
-      <c r="AS245" s="30"/>
-      <c r="AT245" s="31"/>
+      <c r="F245" s="93"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="14"/>
+      <c r="N245" s="14"/>
+      <c r="O245" s="14"/>
+      <c r="P245" s="33"/>
+      <c r="Q245" s="33"/>
+      <c r="R245" s="33"/>
+      <c r="S245" s="34"/>
+      <c r="T245" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="U245" s="41"/>
+      <c r="V245" s="33"/>
+      <c r="W245" s="33"/>
+      <c r="X245" s="33"/>
+      <c r="Y245" s="33"/>
+      <c r="Z245" s="33"/>
+      <c r="AA245" s="33"/>
+      <c r="AB245" s="33"/>
+      <c r="AC245" s="33"/>
+      <c r="AD245" s="33"/>
+      <c r="AE245" s="33"/>
+      <c r="AF245" s="33"/>
+      <c r="AG245" s="33"/>
+      <c r="AH245" s="33"/>
+      <c r="AI245" s="33"/>
+      <c r="AJ245" s="33"/>
+      <c r="AK245" s="33"/>
+      <c r="AL245" s="33"/>
+      <c r="AM245" s="33"/>
+      <c r="AN245" s="33"/>
+      <c r="AO245" s="33"/>
+      <c r="AP245" s="33"/>
+      <c r="AQ245" s="33"/>
+      <c r="AR245" s="33"/>
+      <c r="AS245" s="33"/>
+      <c r="AT245" s="34"/>
       <c r="AU245" s="14"/>
       <c r="AV245" s="14"/>
       <c r="AW245" s="20"/>
     </row>
-    <row r="246" spans="4:49" ht="20" customHeight="1">
+    <row r="246" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D246" s="19"/>
       <c r="E246" s="14"/>
       <c r="F246" s="93"/>
-      <c r="G246" s="32"/>
-      <c r="H246" s="41"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="33"/>
-      <c r="K246" s="33"/>
-      <c r="L246" s="33"/>
-      <c r="M246" s="33"/>
-      <c r="N246" s="33"/>
-      <c r="O246" s="33"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="14"/>
+      <c r="N246" s="14"/>
+      <c r="O246" s="14"/>
       <c r="P246" s="33"/>
       <c r="Q246" s="33"/>
       <c r="R246" s="33"/>
       <c r="S246" s="34"/>
-      <c r="T246" s="32"/>
-      <c r="U246" s="33"/>
+      <c r="T246" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="U246" s="41"/>
       <c r="V246" s="33"/>
       <c r="W246" s="33"/>
       <c r="X246" s="33"/>
@@ -19068,25 +19246,27 @@
       <c r="AV246" s="14"/>
       <c r="AW246" s="20"/>
     </row>
-    <row r="247" spans="4:49" ht="20" customHeight="1">
+    <row r="247" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D247" s="19"/>
       <c r="E247" s="14"/>
       <c r="F247" s="93"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="41"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="33"/>
-      <c r="K247" s="33"/>
-      <c r="L247" s="33"/>
-      <c r="M247" s="33"/>
-      <c r="N247" s="33"/>
-      <c r="O247" s="33"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="14"/>
+      <c r="N247" s="14"/>
+      <c r="O247" s="14"/>
       <c r="P247" s="33"/>
       <c r="Q247" s="33"/>
       <c r="R247" s="33"/>
       <c r="S247" s="34"/>
-      <c r="T247" s="32"/>
-      <c r="U247" s="33"/>
+      <c r="T247" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="U247" s="41"/>
       <c r="V247" s="33"/>
       <c r="W247" s="33"/>
       <c r="X247" s="33"/>
@@ -19116,231 +19296,227 @@
       <c r="AV247" s="14"/>
       <c r="AW247" s="20"/>
     </row>
-    <row r="248" spans="4:49" ht="20" customHeight="1">
+    <row r="248" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D248" s="19"/>
       <c r="E248" s="14"/>
-      <c r="F248" s="94"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="37"/>
-      <c r="I248" s="78"/>
-      <c r="J248" s="37"/>
-      <c r="K248" s="37"/>
-      <c r="L248" s="37"/>
-      <c r="M248" s="37"/>
-      <c r="N248" s="37"/>
-      <c r="O248" s="37"/>
-      <c r="P248" s="37"/>
-      <c r="Q248" s="37"/>
-      <c r="R248" s="37"/>
-      <c r="S248" s="36"/>
-      <c r="T248" s="35"/>
-      <c r="U248" s="37"/>
-      <c r="V248" s="37"/>
-      <c r="W248" s="37"/>
-      <c r="X248" s="37"/>
-      <c r="Y248" s="37"/>
-      <c r="Z248" s="37"/>
-      <c r="AA248" s="37"/>
-      <c r="AB248" s="37"/>
-      <c r="AC248" s="37"/>
-      <c r="AD248" s="37"/>
-      <c r="AE248" s="37"/>
-      <c r="AF248" s="37"/>
-      <c r="AG248" s="37"/>
-      <c r="AH248" s="37"/>
-      <c r="AI248" s="37"/>
-      <c r="AJ248" s="37"/>
-      <c r="AK248" s="37"/>
-      <c r="AL248" s="37"/>
-      <c r="AM248" s="37"/>
-      <c r="AN248" s="37"/>
-      <c r="AO248" s="37"/>
-      <c r="AP248" s="37"/>
-      <c r="AQ248" s="37"/>
-      <c r="AR248" s="37"/>
-      <c r="AS248" s="37"/>
-      <c r="AT248" s="36"/>
+      <c r="F248" s="93"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="14"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="14"/>
+      <c r="P248" s="33"/>
+      <c r="Q248" s="33"/>
+      <c r="R248" s="33"/>
+      <c r="S248" s="34"/>
+      <c r="T248" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="U248" s="41"/>
+      <c r="V248" s="33"/>
+      <c r="W248" s="33"/>
+      <c r="X248" s="33"/>
+      <c r="Y248" s="33"/>
+      <c r="Z248" s="33"/>
+      <c r="AA248" s="33"/>
+      <c r="AB248" s="33"/>
+      <c r="AC248" s="33"/>
+      <c r="AD248" s="33"/>
+      <c r="AE248" s="33"/>
+      <c r="AF248" s="33"/>
+      <c r="AG248" s="33"/>
+      <c r="AH248" s="33"/>
+      <c r="AI248" s="33"/>
+      <c r="AJ248" s="33"/>
+      <c r="AK248" s="33"/>
+      <c r="AL248" s="33"/>
+      <c r="AM248" s="33"/>
+      <c r="AN248" s="33"/>
+      <c r="AO248" s="33"/>
+      <c r="AP248" s="33"/>
+      <c r="AQ248" s="33"/>
+      <c r="AR248" s="33"/>
+      <c r="AS248" s="33"/>
+      <c r="AT248" s="34"/>
       <c r="AU248" s="14"/>
       <c r="AV248" s="14"/>
       <c r="AW248" s="20"/>
     </row>
-    <row r="249" spans="4:49" ht="20" customHeight="1">
+    <row r="249" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D249" s="19"/>
       <c r="E249" s="14"/>
-      <c r="F249" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="G249" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H249" s="90"/>
-      <c r="I249" s="30"/>
-      <c r="J249" s="30"/>
-      <c r="K249" s="30"/>
-      <c r="L249" s="30"/>
-      <c r="M249" s="30"/>
-      <c r="N249" s="30"/>
-      <c r="O249" s="30"/>
-      <c r="P249" s="30"/>
-      <c r="Q249" s="30"/>
-      <c r="R249" s="30"/>
-      <c r="S249" s="31"/>
-      <c r="T249" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U249" s="30"/>
-      <c r="V249" s="30"/>
-      <c r="W249" s="30"/>
-      <c r="X249" s="30"/>
-      <c r="Y249" s="30"/>
-      <c r="Z249" s="30"/>
-      <c r="AA249" s="30"/>
-      <c r="AB249" s="30"/>
-      <c r="AC249" s="30"/>
-      <c r="AD249" s="30"/>
-      <c r="AE249" s="30"/>
-      <c r="AF249" s="30"/>
-      <c r="AG249" s="30"/>
-      <c r="AH249" s="30"/>
-      <c r="AI249" s="30"/>
-      <c r="AJ249" s="30"/>
-      <c r="AK249" s="30"/>
-      <c r="AL249" s="30"/>
-      <c r="AM249" s="30"/>
-      <c r="AN249" s="30"/>
-      <c r="AO249" s="30"/>
-      <c r="AP249" s="30"/>
-      <c r="AQ249" s="30"/>
-      <c r="AR249" s="30"/>
-      <c r="AS249" s="30"/>
-      <c r="AT249" s="31"/>
+      <c r="F249" s="93"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="14"/>
+      <c r="N249" s="14"/>
+      <c r="O249" s="14"/>
+      <c r="P249" s="33"/>
+      <c r="Q249" s="33"/>
+      <c r="R249" s="33"/>
+      <c r="S249" s="34"/>
+      <c r="T249" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="U249" s="41"/>
+      <c r="V249" s="33"/>
+      <c r="W249" s="33"/>
+      <c r="X249" s="33"/>
+      <c r="Y249" s="33"/>
+      <c r="Z249" s="33"/>
+      <c r="AA249" s="33"/>
+      <c r="AB249" s="33"/>
+      <c r="AC249" s="33"/>
+      <c r="AD249" s="33"/>
+      <c r="AE249" s="33"/>
+      <c r="AF249" s="33"/>
+      <c r="AG249" s="33"/>
+      <c r="AH249" s="33"/>
+      <c r="AI249" s="33"/>
+      <c r="AJ249" s="33"/>
+      <c r="AK249" s="33"/>
+      <c r="AL249" s="33"/>
+      <c r="AM249" s="33"/>
+      <c r="AN249" s="33"/>
+      <c r="AO249" s="33"/>
+      <c r="AP249" s="33"/>
+      <c r="AQ249" s="33"/>
+      <c r="AR249" s="33"/>
+      <c r="AS249" s="33"/>
+      <c r="AT249" s="34"/>
       <c r="AU249" s="14"/>
       <c r="AV249" s="14"/>
       <c r="AW249" s="20"/>
     </row>
-    <row r="250" spans="4:49" ht="20" customHeight="1">
+    <row r="250" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D250" s="19"/>
       <c r="E250" s="14"/>
-      <c r="F250" s="94"/>
-      <c r="G250" s="35"/>
-      <c r="H250" s="37"/>
-      <c r="I250" s="78"/>
-      <c r="J250" s="37"/>
-      <c r="K250" s="37"/>
-      <c r="L250" s="37"/>
-      <c r="M250" s="37"/>
-      <c r="N250" s="37"/>
-      <c r="O250" s="37"/>
-      <c r="P250" s="37"/>
-      <c r="Q250" s="37"/>
-      <c r="R250" s="37"/>
-      <c r="S250" s="36"/>
-      <c r="T250" s="35"/>
-      <c r="U250" s="37"/>
-      <c r="V250" s="37"/>
-      <c r="W250" s="37"/>
-      <c r="X250" s="37"/>
-      <c r="Y250" s="37"/>
-      <c r="Z250" s="37"/>
-      <c r="AA250" s="37"/>
-      <c r="AB250" s="37"/>
-      <c r="AC250" s="37"/>
-      <c r="AD250" s="37"/>
-      <c r="AE250" s="37"/>
-      <c r="AF250" s="37"/>
-      <c r="AG250" s="37"/>
-      <c r="AH250" s="37"/>
-      <c r="AI250" s="37"/>
-      <c r="AJ250" s="37"/>
-      <c r="AK250" s="37"/>
-      <c r="AL250" s="37"/>
-      <c r="AM250" s="37"/>
-      <c r="AN250" s="37"/>
-      <c r="AO250" s="37"/>
-      <c r="AP250" s="37"/>
-      <c r="AQ250" s="37"/>
-      <c r="AR250" s="37"/>
-      <c r="AS250" s="37"/>
-      <c r="AT250" s="36"/>
+      <c r="F250" s="93"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="14"/>
+      <c r="N250" s="14"/>
+      <c r="O250" s="14"/>
+      <c r="P250" s="33"/>
+      <c r="Q250" s="33"/>
+      <c r="R250" s="33"/>
+      <c r="S250" s="34"/>
+      <c r="T250" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="U250" s="41"/>
+      <c r="V250" s="33"/>
+      <c r="W250" s="33"/>
+      <c r="X250" s="33"/>
+      <c r="Y250" s="33"/>
+      <c r="Z250" s="33"/>
+      <c r="AA250" s="33"/>
+      <c r="AB250" s="33"/>
+      <c r="AC250" s="33"/>
+      <c r="AD250" s="33"/>
+      <c r="AE250" s="33"/>
+      <c r="AF250" s="33"/>
+      <c r="AG250" s="33"/>
+      <c r="AH250" s="33"/>
+      <c r="AI250" s="33"/>
+      <c r="AJ250" s="33"/>
+      <c r="AK250" s="33"/>
+      <c r="AL250" s="33"/>
+      <c r="AM250" s="33"/>
+      <c r="AN250" s="33"/>
+      <c r="AO250" s="33"/>
+      <c r="AP250" s="33"/>
+      <c r="AQ250" s="33"/>
+      <c r="AR250" s="33"/>
+      <c r="AS250" s="33"/>
+      <c r="AT250" s="34"/>
       <c r="AU250" s="14"/>
       <c r="AV250" s="14"/>
       <c r="AW250" s="20"/>
     </row>
-    <row r="251" spans="4:49" ht="20" customHeight="1">
+    <row r="251" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D251" s="19"/>
       <c r="E251" s="14"/>
-      <c r="F251" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="G251" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H251" s="30"/>
-      <c r="I251" s="90"/>
-      <c r="J251" s="30"/>
-      <c r="K251" s="30"/>
-      <c r="L251" s="30"/>
-      <c r="M251" s="30"/>
-      <c r="N251" s="30"/>
-      <c r="O251" s="30"/>
-      <c r="P251" s="30"/>
-      <c r="Q251" s="30"/>
-      <c r="R251" s="30"/>
-      <c r="S251" s="31"/>
-      <c r="T251" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="U251" s="30"/>
-      <c r="V251" s="30"/>
-      <c r="W251" s="30"/>
-      <c r="X251" s="30"/>
-      <c r="Y251" s="30"/>
-      <c r="Z251" s="30"/>
-      <c r="AA251" s="30"/>
-      <c r="AB251" s="30"/>
-      <c r="AC251" s="30"/>
-      <c r="AD251" s="30"/>
-      <c r="AE251" s="30"/>
-      <c r="AF251" s="30"/>
-      <c r="AG251" s="30"/>
-      <c r="AH251" s="30"/>
-      <c r="AI251" s="30"/>
-      <c r="AJ251" s="30"/>
-      <c r="AK251" s="30"/>
-      <c r="AL251" s="30"/>
-      <c r="AM251" s="30"/>
-      <c r="AN251" s="30"/>
-      <c r="AO251" s="30"/>
-      <c r="AP251" s="30"/>
-      <c r="AQ251" s="30"/>
-      <c r="AR251" s="30"/>
-      <c r="AS251" s="30"/>
-      <c r="AT251" s="31"/>
+      <c r="F251" s="93"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="14"/>
+      <c r="J251" s="14"/>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="14"/>
+      <c r="N251" s="14"/>
+      <c r="O251" s="14"/>
+      <c r="P251" s="33"/>
+      <c r="Q251" s="33"/>
+      <c r="R251" s="33"/>
+      <c r="S251" s="34"/>
+      <c r="T251" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="U251" s="41"/>
+      <c r="V251" s="33"/>
+      <c r="W251" s="33"/>
+      <c r="X251" s="33"/>
+      <c r="Y251" s="33"/>
+      <c r="Z251" s="33"/>
+      <c r="AA251" s="33"/>
+      <c r="AB251" s="33"/>
+      <c r="AC251" s="33"/>
+      <c r="AD251" s="33"/>
+      <c r="AE251" s="33"/>
+      <c r="AF251" s="33"/>
+      <c r="AG251" s="33"/>
+      <c r="AH251" s="33"/>
+      <c r="AI251" s="33"/>
+      <c r="AJ251" s="33"/>
+      <c r="AK251" s="33"/>
+      <c r="AL251" s="33"/>
+      <c r="AM251" s="33"/>
+      <c r="AN251" s="33"/>
+      <c r="AO251" s="33"/>
+      <c r="AP251" s="33"/>
+      <c r="AQ251" s="33"/>
+      <c r="AR251" s="33"/>
+      <c r="AS251" s="33"/>
+      <c r="AT251" s="34"/>
       <c r="AU251" s="14"/>
       <c r="AV251" s="14"/>
       <c r="AW251" s="20"/>
     </row>
-    <row r="252" spans="4:49" ht="20" customHeight="1">
+    <row r="252" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D252" s="19"/>
       <c r="E252" s="14"/>
       <c r="F252" s="93"/>
-      <c r="G252" s="32"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="41"/>
-      <c r="J252" s="33"/>
-      <c r="K252" s="33"/>
-      <c r="L252" s="33"/>
-      <c r="M252" s="33"/>
-      <c r="N252" s="33"/>
-      <c r="O252" s="33"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="14"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="14"/>
       <c r="P252" s="33"/>
       <c r="Q252" s="33"/>
       <c r="R252" s="33"/>
       <c r="S252" s="34"/>
-      <c r="T252" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="U252" s="33"/>
+      <c r="T252" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="U252" s="41"/>
       <c r="V252" s="33"/>
       <c r="W252" s="33"/>
       <c r="X252" s="33"/>
@@ -19370,13 +19546,13 @@
       <c r="AV252" s="14"/>
       <c r="AW252" s="20"/>
     </row>
-    <row r="253" spans="4:49" ht="20" customHeight="1">
+    <row r="253" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D253" s="19"/>
       <c r="E253" s="14"/>
       <c r="F253" s="94"/>
       <c r="G253" s="35"/>
-      <c r="H253" s="37"/>
-      <c r="I253" s="78"/>
+      <c r="H253" s="78"/>
+      <c r="I253" s="37"/>
       <c r="J253" s="37"/>
       <c r="K253" s="37"/>
       <c r="L253" s="37"/>
@@ -19418,14 +19594,14 @@
       <c r="AV253" s="14"/>
       <c r="AW253" s="20"/>
     </row>
-    <row r="254" spans="4:49" ht="20" customHeight="1">
+    <row r="254" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D254" s="19"/>
       <c r="E254" s="14"/>
       <c r="F254" s="92" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="H254" s="90"/>
       <c r="I254" s="30"/>
@@ -19439,9 +19615,7 @@
       <c r="Q254" s="30"/>
       <c r="R254" s="30"/>
       <c r="S254" s="31"/>
-      <c r="T254" s="29" t="s">
-        <v>102</v>
-      </c>
+      <c r="T254" s="29"/>
       <c r="U254" s="30"/>
       <c r="V254" s="30"/>
       <c r="W254" s="30"/>
@@ -19472,155 +19646,719 @@
       <c r="AV254" s="14"/>
       <c r="AW254" s="20"/>
     </row>
-    <row r="255" spans="4:49" ht="20" customHeight="1">
+    <row r="255" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D255" s="19"/>
       <c r="E255" s="14"/>
-      <c r="F255" s="94"/>
-      <c r="G255" s="35"/>
-      <c r="H255" s="37"/>
-      <c r="I255" s="78"/>
-      <c r="J255" s="37"/>
-      <c r="K255" s="37"/>
-      <c r="L255" s="37"/>
-      <c r="M255" s="37"/>
-      <c r="N255" s="37"/>
-      <c r="O255" s="37"/>
-      <c r="P255" s="37"/>
-      <c r="Q255" s="37"/>
-      <c r="R255" s="37"/>
-      <c r="S255" s="36"/>
-      <c r="T255" s="35"/>
-      <c r="U255" s="37"/>
-      <c r="V255" s="37"/>
-      <c r="W255" s="37"/>
-      <c r="X255" s="37"/>
-      <c r="Y255" s="37"/>
-      <c r="Z255" s="37"/>
-      <c r="AA255" s="37"/>
-      <c r="AB255" s="37"/>
-      <c r="AC255" s="37"/>
-      <c r="AD255" s="37"/>
-      <c r="AE255" s="37"/>
-      <c r="AF255" s="37"/>
-      <c r="AG255" s="37"/>
-      <c r="AH255" s="37"/>
-      <c r="AI255" s="37"/>
-      <c r="AJ255" s="37"/>
-      <c r="AK255" s="37"/>
-      <c r="AL255" s="37"/>
-      <c r="AM255" s="37"/>
-      <c r="AN255" s="37"/>
-      <c r="AO255" s="37"/>
-      <c r="AP255" s="37"/>
-      <c r="AQ255" s="37"/>
-      <c r="AR255" s="37"/>
-      <c r="AS255" s="37"/>
-      <c r="AT255" s="36"/>
+      <c r="F255" s="93"/>
+      <c r="G255" s="32"/>
+      <c r="H255" s="41"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="33"/>
+      <c r="L255" s="33"/>
+      <c r="M255" s="33"/>
+      <c r="N255" s="33"/>
+      <c r="O255" s="33"/>
+      <c r="P255" s="33"/>
+      <c r="Q255" s="33"/>
+      <c r="R255" s="33"/>
+      <c r="S255" s="34"/>
+      <c r="T255" s="32"/>
+      <c r="U255" s="33"/>
+      <c r="V255" s="33"/>
+      <c r="W255" s="33"/>
+      <c r="X255" s="33"/>
+      <c r="Y255" s="33"/>
+      <c r="Z255" s="33"/>
+      <c r="AA255" s="33"/>
+      <c r="AB255" s="33"/>
+      <c r="AC255" s="33"/>
+      <c r="AD255" s="33"/>
+      <c r="AE255" s="33"/>
+      <c r="AF255" s="33"/>
+      <c r="AG255" s="33"/>
+      <c r="AH255" s="33"/>
+      <c r="AI255" s="33"/>
+      <c r="AJ255" s="33"/>
+      <c r="AK255" s="33"/>
+      <c r="AL255" s="33"/>
+      <c r="AM255" s="33"/>
+      <c r="AN255" s="33"/>
+      <c r="AO255" s="33"/>
+      <c r="AP255" s="33"/>
+      <c r="AQ255" s="33"/>
+      <c r="AR255" s="33"/>
+      <c r="AS255" s="33"/>
+      <c r="AT255" s="34"/>
       <c r="AU255" s="14"/>
       <c r="AV255" s="14"/>
       <c r="AW255" s="20"/>
     </row>
-    <row r="256" spans="4:49">
+    <row r="256" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="D256" s="19"/>
       <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
-      <c r="G256" s="14"/>
-      <c r="H256" s="14"/>
-      <c r="I256" s="14"/>
-      <c r="J256" s="14"/>
-      <c r="K256" s="14"/>
-      <c r="L256" s="14"/>
-      <c r="M256" s="14"/>
-      <c r="N256" s="14"/>
-      <c r="O256" s="14"/>
-      <c r="P256" s="14"/>
-      <c r="Q256" s="14"/>
-      <c r="R256" s="14"/>
-      <c r="S256" s="14"/>
-      <c r="T256" s="14"/>
-      <c r="U256" s="14"/>
-      <c r="V256" s="14"/>
-      <c r="W256" s="14"/>
-      <c r="X256" s="14"/>
-      <c r="Y256" s="14"/>
-      <c r="Z256" s="14"/>
-      <c r="AA256" s="14"/>
-      <c r="AB256" s="14"/>
-      <c r="AC256" s="14"/>
-      <c r="AD256" s="14"/>
-      <c r="AE256" s="14"/>
-      <c r="AF256" s="14"/>
-      <c r="AG256" s="14"/>
-      <c r="AH256" s="14"/>
-      <c r="AI256" s="14"/>
-      <c r="AJ256" s="14"/>
-      <c r="AK256" s="14"/>
-      <c r="AL256" s="14"/>
-      <c r="AM256" s="14"/>
-      <c r="AN256" s="14"/>
-      <c r="AO256" s="14"/>
-      <c r="AP256" s="14"/>
-      <c r="AQ256" s="14"/>
-      <c r="AR256" s="14"/>
-      <c r="AS256" s="14"/>
-      <c r="AT256" s="14"/>
+      <c r="F256" s="93"/>
+      <c r="G256" s="32"/>
+      <c r="H256" s="41"/>
+      <c r="I256" s="33"/>
+      <c r="J256" s="33"/>
+      <c r="K256" s="33"/>
+      <c r="L256" s="33"/>
+      <c r="M256" s="33"/>
+      <c r="N256" s="33"/>
+      <c r="O256" s="33"/>
+      <c r="P256" s="33"/>
+      <c r="Q256" s="33"/>
+      <c r="R256" s="33"/>
+      <c r="S256" s="34"/>
+      <c r="T256" s="32"/>
+      <c r="U256" s="33"/>
+      <c r="V256" s="33"/>
+      <c r="W256" s="33"/>
+      <c r="X256" s="33"/>
+      <c r="Y256" s="33"/>
+      <c r="Z256" s="33"/>
+      <c r="AA256" s="33"/>
+      <c r="AB256" s="33"/>
+      <c r="AC256" s="33"/>
+      <c r="AD256" s="33"/>
+      <c r="AE256" s="33"/>
+      <c r="AF256" s="33"/>
+      <c r="AG256" s="33"/>
+      <c r="AH256" s="33"/>
+      <c r="AI256" s="33"/>
+      <c r="AJ256" s="33"/>
+      <c r="AK256" s="33"/>
+      <c r="AL256" s="33"/>
+      <c r="AM256" s="33"/>
+      <c r="AN256" s="33"/>
+      <c r="AO256" s="33"/>
+      <c r="AP256" s="33"/>
+      <c r="AQ256" s="33"/>
+      <c r="AR256" s="33"/>
+      <c r="AS256" s="33"/>
+      <c r="AT256" s="34"/>
       <c r="AU256" s="14"/>
       <c r="AV256" s="14"/>
       <c r="AW256" s="20"/>
     </row>
-    <row r="257" spans="4:49">
-      <c r="D257" s="5"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
-      <c r="J257" s="6"/>
-      <c r="K257" s="6"/>
-      <c r="L257" s="6"/>
-      <c r="M257" s="6"/>
-      <c r="N257" s="6"/>
-      <c r="O257" s="6"/>
-      <c r="P257" s="6"/>
-      <c r="Q257" s="6"/>
-      <c r="R257" s="6"/>
-      <c r="S257" s="6"/>
-      <c r="T257" s="6"/>
-      <c r="U257" s="6"/>
-      <c r="V257" s="6"/>
-      <c r="W257" s="6"/>
-      <c r="X257" s="6"/>
-      <c r="Y257" s="6"/>
-      <c r="Z257" s="6"/>
-      <c r="AA257" s="6"/>
-      <c r="AB257" s="6"/>
-      <c r="AC257" s="6"/>
-      <c r="AD257" s="6"/>
-      <c r="AE257" s="6"/>
-      <c r="AF257" s="6"/>
-      <c r="AG257" s="6"/>
-      <c r="AH257" s="6"/>
-      <c r="AI257" s="6"/>
-      <c r="AJ257" s="6"/>
-      <c r="AK257" s="6"/>
-      <c r="AL257" s="6"/>
-      <c r="AM257" s="6"/>
-      <c r="AN257" s="6"/>
-      <c r="AO257" s="6"/>
-      <c r="AP257" s="6"/>
-      <c r="AQ257" s="6"/>
-      <c r="AR257" s="6"/>
-      <c r="AS257" s="6"/>
-      <c r="AT257" s="6"/>
-      <c r="AU257" s="6"/>
-      <c r="AV257" s="6"/>
-      <c r="AW257" s="7"/>
-    </row>
+    <row r="257" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D257" s="19"/>
+      <c r="E257" s="14"/>
+      <c r="F257" s="94"/>
+      <c r="G257" s="35"/>
+      <c r="H257" s="37"/>
+      <c r="I257" s="78"/>
+      <c r="J257" s="37"/>
+      <c r="K257" s="37"/>
+      <c r="L257" s="37"/>
+      <c r="M257" s="37"/>
+      <c r="N257" s="37"/>
+      <c r="O257" s="37"/>
+      <c r="P257" s="37"/>
+      <c r="Q257" s="37"/>
+      <c r="R257" s="37"/>
+      <c r="S257" s="36"/>
+      <c r="T257" s="35"/>
+      <c r="U257" s="37"/>
+      <c r="V257" s="37"/>
+      <c r="W257" s="37"/>
+      <c r="X257" s="37"/>
+      <c r="Y257" s="37"/>
+      <c r="Z257" s="37"/>
+      <c r="AA257" s="37"/>
+      <c r="AB257" s="37"/>
+      <c r="AC257" s="37"/>
+      <c r="AD257" s="37"/>
+      <c r="AE257" s="37"/>
+      <c r="AF257" s="37"/>
+      <c r="AG257" s="37"/>
+      <c r="AH257" s="37"/>
+      <c r="AI257" s="37"/>
+      <c r="AJ257" s="37"/>
+      <c r="AK257" s="37"/>
+      <c r="AL257" s="37"/>
+      <c r="AM257" s="37"/>
+      <c r="AN257" s="37"/>
+      <c r="AO257" s="37"/>
+      <c r="AP257" s="37"/>
+      <c r="AQ257" s="37"/>
+      <c r="AR257" s="37"/>
+      <c r="AS257" s="37"/>
+      <c r="AT257" s="36"/>
+      <c r="AU257" s="14"/>
+      <c r="AV257" s="14"/>
+      <c r="AW257" s="20"/>
+    </row>
+    <row r="258" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D258" s="19"/>
+      <c r="E258" s="14"/>
+      <c r="F258" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="G258" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H258" s="90"/>
+      <c r="I258" s="30"/>
+      <c r="J258" s="30"/>
+      <c r="K258" s="30"/>
+      <c r="L258" s="30"/>
+      <c r="M258" s="30"/>
+      <c r="N258" s="30"/>
+      <c r="O258" s="30"/>
+      <c r="P258" s="30"/>
+      <c r="Q258" s="30"/>
+      <c r="R258" s="30"/>
+      <c r="S258" s="31"/>
+      <c r="T258" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U258" s="30"/>
+      <c r="V258" s="30"/>
+      <c r="W258" s="30"/>
+      <c r="X258" s="30"/>
+      <c r="Y258" s="30"/>
+      <c r="Z258" s="30"/>
+      <c r="AA258" s="30"/>
+      <c r="AB258" s="30"/>
+      <c r="AC258" s="30"/>
+      <c r="AD258" s="30"/>
+      <c r="AE258" s="30"/>
+      <c r="AF258" s="30"/>
+      <c r="AG258" s="30"/>
+      <c r="AH258" s="30"/>
+      <c r="AI258" s="30"/>
+      <c r="AJ258" s="30"/>
+      <c r="AK258" s="30"/>
+      <c r="AL258" s="30"/>
+      <c r="AM258" s="30"/>
+      <c r="AN258" s="30"/>
+      <c r="AO258" s="30"/>
+      <c r="AP258" s="30"/>
+      <c r="AQ258" s="30"/>
+      <c r="AR258" s="30"/>
+      <c r="AS258" s="30"/>
+      <c r="AT258" s="31"/>
+      <c r="AU258" s="14"/>
+      <c r="AV258" s="14"/>
+      <c r="AW258" s="20"/>
+    </row>
+    <row r="259" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D259" s="19"/>
+      <c r="E259" s="14"/>
+      <c r="F259" s="94"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="37"/>
+      <c r="I259" s="78"/>
+      <c r="J259" s="37"/>
+      <c r="K259" s="37"/>
+      <c r="L259" s="37"/>
+      <c r="M259" s="37"/>
+      <c r="N259" s="37"/>
+      <c r="O259" s="37"/>
+      <c r="P259" s="37"/>
+      <c r="Q259" s="37"/>
+      <c r="R259" s="37"/>
+      <c r="S259" s="36"/>
+      <c r="T259" s="35"/>
+      <c r="U259" s="37"/>
+      <c r="V259" s="37"/>
+      <c r="W259" s="37"/>
+      <c r="X259" s="37"/>
+      <c r="Y259" s="37"/>
+      <c r="Z259" s="37"/>
+      <c r="AA259" s="37"/>
+      <c r="AB259" s="37"/>
+      <c r="AC259" s="37"/>
+      <c r="AD259" s="37"/>
+      <c r="AE259" s="37"/>
+      <c r="AF259" s="37"/>
+      <c r="AG259" s="37"/>
+      <c r="AH259" s="37"/>
+      <c r="AI259" s="37"/>
+      <c r="AJ259" s="37"/>
+      <c r="AK259" s="37"/>
+      <c r="AL259" s="37"/>
+      <c r="AM259" s="37"/>
+      <c r="AN259" s="37"/>
+      <c r="AO259" s="37"/>
+      <c r="AP259" s="37"/>
+      <c r="AQ259" s="37"/>
+      <c r="AR259" s="37"/>
+      <c r="AS259" s="37"/>
+      <c r="AT259" s="36"/>
+      <c r="AU259" s="14"/>
+      <c r="AV259" s="14"/>
+      <c r="AW259" s="20"/>
+    </row>
+    <row r="260" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D260" s="19"/>
+      <c r="E260" s="14"/>
+      <c r="F260" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="G260" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" s="30"/>
+      <c r="I260" s="90"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+      <c r="M260" s="30"/>
+      <c r="N260" s="30"/>
+      <c r="O260" s="30"/>
+      <c r="P260" s="30"/>
+      <c r="Q260" s="30"/>
+      <c r="R260" s="30"/>
+      <c r="S260" s="31"/>
+      <c r="T260" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="U260" s="30"/>
+      <c r="V260" s="30"/>
+      <c r="W260" s="30"/>
+      <c r="X260" s="30"/>
+      <c r="Y260" s="30"/>
+      <c r="Z260" s="30"/>
+      <c r="AA260" s="30"/>
+      <c r="AB260" s="30"/>
+      <c r="AC260" s="30"/>
+      <c r="AD260" s="30"/>
+      <c r="AE260" s="30"/>
+      <c r="AF260" s="30"/>
+      <c r="AG260" s="30"/>
+      <c r="AH260" s="30"/>
+      <c r="AI260" s="30"/>
+      <c r="AJ260" s="30"/>
+      <c r="AK260" s="30"/>
+      <c r="AL260" s="30"/>
+      <c r="AM260" s="30"/>
+      <c r="AN260" s="30"/>
+      <c r="AO260" s="30"/>
+      <c r="AP260" s="30"/>
+      <c r="AQ260" s="30"/>
+      <c r="AR260" s="30"/>
+      <c r="AS260" s="30"/>
+      <c r="AT260" s="31"/>
+      <c r="AU260" s="14"/>
+      <c r="AV260" s="14"/>
+      <c r="AW260" s="20"/>
+    </row>
+    <row r="261" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D261" s="19"/>
+      <c r="E261" s="14"/>
+      <c r="F261" s="93"/>
+      <c r="G261" s="32"/>
+      <c r="H261" s="33"/>
+      <c r="I261" s="41"/>
+      <c r="J261" s="33"/>
+      <c r="K261" s="33"/>
+      <c r="L261" s="33"/>
+      <c r="M261" s="33"/>
+      <c r="N261" s="33"/>
+      <c r="O261" s="33"/>
+      <c r="P261" s="33"/>
+      <c r="Q261" s="33"/>
+      <c r="R261" s="33"/>
+      <c r="S261" s="34"/>
+      <c r="T261" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U261" s="33"/>
+      <c r="V261" s="33"/>
+      <c r="W261" s="33"/>
+      <c r="X261" s="33"/>
+      <c r="Y261" s="33"/>
+      <c r="Z261" s="33"/>
+      <c r="AA261" s="33"/>
+      <c r="AB261" s="33"/>
+      <c r="AC261" s="33"/>
+      <c r="AD261" s="33"/>
+      <c r="AE261" s="33"/>
+      <c r="AF261" s="33"/>
+      <c r="AG261" s="33"/>
+      <c r="AH261" s="33"/>
+      <c r="AI261" s="33"/>
+      <c r="AJ261" s="33"/>
+      <c r="AK261" s="33"/>
+      <c r="AL261" s="33"/>
+      <c r="AM261" s="33"/>
+      <c r="AN261" s="33"/>
+      <c r="AO261" s="33"/>
+      <c r="AP261" s="33"/>
+      <c r="AQ261" s="33"/>
+      <c r="AR261" s="33"/>
+      <c r="AS261" s="33"/>
+      <c r="AT261" s="34"/>
+      <c r="AU261" s="14"/>
+      <c r="AV261" s="14"/>
+      <c r="AW261" s="20"/>
+    </row>
+    <row r="262" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D262" s="19"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="94"/>
+      <c r="G262" s="35"/>
+      <c r="H262" s="37"/>
+      <c r="I262" s="78"/>
+      <c r="J262" s="37"/>
+      <c r="K262" s="37"/>
+      <c r="L262" s="37"/>
+      <c r="M262" s="37"/>
+      <c r="N262" s="37"/>
+      <c r="O262" s="37"/>
+      <c r="P262" s="37"/>
+      <c r="Q262" s="37"/>
+      <c r="R262" s="37"/>
+      <c r="S262" s="36"/>
+      <c r="T262" s="35"/>
+      <c r="U262" s="37"/>
+      <c r="V262" s="37"/>
+      <c r="W262" s="37"/>
+      <c r="X262" s="37"/>
+      <c r="Y262" s="37"/>
+      <c r="Z262" s="37"/>
+      <c r="AA262" s="37"/>
+      <c r="AB262" s="37"/>
+      <c r="AC262" s="37"/>
+      <c r="AD262" s="37"/>
+      <c r="AE262" s="37"/>
+      <c r="AF262" s="37"/>
+      <c r="AG262" s="37"/>
+      <c r="AH262" s="37"/>
+      <c r="AI262" s="37"/>
+      <c r="AJ262" s="37"/>
+      <c r="AK262" s="37"/>
+      <c r="AL262" s="37"/>
+      <c r="AM262" s="37"/>
+      <c r="AN262" s="37"/>
+      <c r="AO262" s="37"/>
+      <c r="AP262" s="37"/>
+      <c r="AQ262" s="37"/>
+      <c r="AR262" s="37"/>
+      <c r="AS262" s="37"/>
+      <c r="AT262" s="36"/>
+      <c r="AU262" s="14"/>
+      <c r="AV262" s="14"/>
+      <c r="AW262" s="20"/>
+    </row>
+    <row r="263" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D263" s="19"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="G263" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H263" s="90"/>
+      <c r="I263" s="30"/>
+      <c r="J263" s="30"/>
+      <c r="K263" s="30"/>
+      <c r="L263" s="30"/>
+      <c r="M263" s="30"/>
+      <c r="N263" s="30"/>
+      <c r="O263" s="30"/>
+      <c r="P263" s="30"/>
+      <c r="Q263" s="30"/>
+      <c r="R263" s="30"/>
+      <c r="S263" s="31"/>
+      <c r="T263" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="U263" s="30"/>
+      <c r="V263" s="30"/>
+      <c r="W263" s="30"/>
+      <c r="X263" s="30"/>
+      <c r="Y263" s="30"/>
+      <c r="Z263" s="30"/>
+      <c r="AA263" s="30"/>
+      <c r="AB263" s="30"/>
+      <c r="AC263" s="30"/>
+      <c r="AD263" s="30"/>
+      <c r="AE263" s="30"/>
+      <c r="AF263" s="30"/>
+      <c r="AG263" s="30"/>
+      <c r="AH263" s="30"/>
+      <c r="AI263" s="30"/>
+      <c r="AJ263" s="30"/>
+      <c r="AK263" s="30"/>
+      <c r="AL263" s="30"/>
+      <c r="AM263" s="30"/>
+      <c r="AN263" s="30"/>
+      <c r="AO263" s="30"/>
+      <c r="AP263" s="30"/>
+      <c r="AQ263" s="30"/>
+      <c r="AR263" s="30"/>
+      <c r="AS263" s="30"/>
+      <c r="AT263" s="31"/>
+      <c r="AU263" s="14"/>
+      <c r="AV263" s="14"/>
+      <c r="AW263" s="20"/>
+    </row>
+    <row r="264" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D264" s="19"/>
+      <c r="E264" s="14"/>
+      <c r="F264" s="94"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="37"/>
+      <c r="I264" s="78"/>
+      <c r="J264" s="37"/>
+      <c r="K264" s="37"/>
+      <c r="L264" s="37"/>
+      <c r="M264" s="37"/>
+      <c r="N264" s="37"/>
+      <c r="O264" s="37"/>
+      <c r="P264" s="37"/>
+      <c r="Q264" s="37"/>
+      <c r="R264" s="37"/>
+      <c r="S264" s="36"/>
+      <c r="T264" s="35"/>
+      <c r="U264" s="37"/>
+      <c r="V264" s="37"/>
+      <c r="W264" s="37"/>
+      <c r="X264" s="37"/>
+      <c r="Y264" s="37"/>
+      <c r="Z264" s="37"/>
+      <c r="AA264" s="37"/>
+      <c r="AB264" s="37"/>
+      <c r="AC264" s="37"/>
+      <c r="AD264" s="37"/>
+      <c r="AE264" s="37"/>
+      <c r="AF264" s="37"/>
+      <c r="AG264" s="37"/>
+      <c r="AH264" s="37"/>
+      <c r="AI264" s="37"/>
+      <c r="AJ264" s="37"/>
+      <c r="AK264" s="37"/>
+      <c r="AL264" s="37"/>
+      <c r="AM264" s="37"/>
+      <c r="AN264" s="37"/>
+      <c r="AO264" s="37"/>
+      <c r="AP264" s="37"/>
+      <c r="AQ264" s="37"/>
+      <c r="AR264" s="37"/>
+      <c r="AS264" s="37"/>
+      <c r="AT264" s="36"/>
+      <c r="AU264" s="14"/>
+      <c r="AV264" s="14"/>
+      <c r="AW264" s="20"/>
+    </row>
+    <row r="265" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D265" s="19"/>
+      <c r="E265" s="14"/>
+      <c r="F265" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="G265" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="30"/>
+      <c r="Q265" s="30"/>
+      <c r="R265" s="30"/>
+      <c r="S265" s="31"/>
+      <c r="T265" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="U265" s="90"/>
+      <c r="V265" s="30"/>
+      <c r="W265" s="30"/>
+      <c r="X265" s="30"/>
+      <c r="Y265" s="30"/>
+      <c r="Z265" s="30"/>
+      <c r="AA265" s="30"/>
+      <c r="AB265" s="30"/>
+      <c r="AC265" s="30"/>
+      <c r="AD265" s="30"/>
+      <c r="AE265" s="30"/>
+      <c r="AF265" s="30"/>
+      <c r="AG265" s="30"/>
+      <c r="AH265" s="30"/>
+      <c r="AI265" s="30"/>
+      <c r="AJ265" s="30"/>
+      <c r="AK265" s="30"/>
+      <c r="AL265" s="30"/>
+      <c r="AM265" s="30"/>
+      <c r="AN265" s="30"/>
+      <c r="AO265" s="30"/>
+      <c r="AP265" s="30"/>
+      <c r="AQ265" s="30"/>
+      <c r="AR265" s="30"/>
+      <c r="AS265" s="30"/>
+      <c r="AT265" s="31"/>
+      <c r="AU265" s="14"/>
+      <c r="AV265" s="14"/>
+      <c r="AW265" s="20"/>
+    </row>
+    <row r="266" spans="4:49" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="D266" s="19"/>
+      <c r="E266" s="14"/>
+      <c r="F266" s="94"/>
+      <c r="G266" s="35"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="37"/>
+      <c r="Q266" s="37"/>
+      <c r="R266" s="37"/>
+      <c r="S266" s="36"/>
+      <c r="T266" s="35"/>
+      <c r="U266" s="78"/>
+      <c r="V266" s="37"/>
+      <c r="W266" s="37"/>
+      <c r="X266" s="37"/>
+      <c r="Y266" s="37"/>
+      <c r="Z266" s="37"/>
+      <c r="AA266" s="37"/>
+      <c r="AB266" s="37"/>
+      <c r="AC266" s="37"/>
+      <c r="AD266" s="37"/>
+      <c r="AE266" s="37"/>
+      <c r="AF266" s="37"/>
+      <c r="AG266" s="37"/>
+      <c r="AH266" s="37"/>
+      <c r="AI266" s="37"/>
+      <c r="AJ266" s="37"/>
+      <c r="AK266" s="37"/>
+      <c r="AL266" s="37"/>
+      <c r="AM266" s="37"/>
+      <c r="AN266" s="37"/>
+      <c r="AO266" s="37"/>
+      <c r="AP266" s="37"/>
+      <c r="AQ266" s="37"/>
+      <c r="AR266" s="37"/>
+      <c r="AS266" s="37"/>
+      <c r="AT266" s="36"/>
+      <c r="AU266" s="14"/>
+      <c r="AV266" s="14"/>
+      <c r="AW266" s="20"/>
+    </row>
+    <row r="267" spans="4:49" s="1" customFormat="1">
+      <c r="D267" s="19"/>
+      <c r="E267" s="14"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="14"/>
+      <c r="J267" s="14"/>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="14"/>
+      <c r="N267" s="14"/>
+      <c r="O267" s="14"/>
+      <c r="P267" s="14"/>
+      <c r="Q267" s="14"/>
+      <c r="R267" s="14"/>
+      <c r="S267" s="14"/>
+      <c r="T267" s="14"/>
+      <c r="U267" s="14"/>
+      <c r="V267" s="14"/>
+      <c r="W267" s="14"/>
+      <c r="X267" s="14"/>
+      <c r="Y267" s="14"/>
+      <c r="Z267" s="14"/>
+      <c r="AA267" s="14"/>
+      <c r="AB267" s="14"/>
+      <c r="AC267" s="14"/>
+      <c r="AD267" s="14"/>
+      <c r="AE267" s="14"/>
+      <c r="AF267" s="14"/>
+      <c r="AG267" s="14"/>
+      <c r="AH267" s="14"/>
+      <c r="AI267" s="14"/>
+      <c r="AJ267" s="14"/>
+      <c r="AK267" s="14"/>
+      <c r="AL267" s="14"/>
+      <c r="AM267" s="14"/>
+      <c r="AN267" s="14"/>
+      <c r="AO267" s="14"/>
+      <c r="AP267" s="14"/>
+      <c r="AQ267" s="14"/>
+      <c r="AR267" s="14"/>
+      <c r="AS267" s="14"/>
+      <c r="AT267" s="14"/>
+      <c r="AU267" s="14"/>
+      <c r="AV267" s="14"/>
+      <c r="AW267" s="20"/>
+    </row>
+    <row r="268" spans="4:49" s="1" customFormat="1">
+      <c r="D268" s="5"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+      <c r="R268" s="6"/>
+      <c r="S268" s="6"/>
+      <c r="T268" s="6"/>
+      <c r="U268" s="6"/>
+      <c r="V268" s="6"/>
+      <c r="W268" s="6"/>
+      <c r="X268" s="6"/>
+      <c r="Y268" s="6"/>
+      <c r="Z268" s="6"/>
+      <c r="AA268" s="6"/>
+      <c r="AB268" s="6"/>
+      <c r="AC268" s="6"/>
+      <c r="AD268" s="6"/>
+      <c r="AE268" s="6"/>
+      <c r="AF268" s="6"/>
+      <c r="AG268" s="6"/>
+      <c r="AH268" s="6"/>
+      <c r="AI268" s="6"/>
+      <c r="AJ268" s="6"/>
+      <c r="AK268" s="6"/>
+      <c r="AL268" s="6"/>
+      <c r="AM268" s="6"/>
+      <c r="AN268" s="6"/>
+      <c r="AO268" s="6"/>
+      <c r="AP268" s="6"/>
+      <c r="AQ268" s="6"/>
+      <c r="AR268" s="6"/>
+      <c r="AS268" s="6"/>
+      <c r="AT268" s="6"/>
+      <c r="AU268" s="6"/>
+      <c r="AV268" s="6"/>
+      <c r="AW268" s="7"/>
+    </row>
+    <row r="269" spans="4:49" s="1" customFormat="1"/>
+    <row r="270" spans="4:49" s="1" customFormat="1"/>
+    <row r="271" spans="4:49" s="1" customFormat="1"/>
+    <row r="272" spans="4:49" s="1" customFormat="1"/>
+    <row r="273" s="1" customFormat="1"/>
+    <row r="274" s="1" customFormat="1"/>
+    <row r="275" s="1" customFormat="1"/>
+    <row r="276" s="1" customFormat="1"/>
+    <row r="277" s="1" customFormat="1"/>
+    <row r="278" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AF100:AG100"/>
     <mergeCell ref="I172:K172"/>
-    <mergeCell ref="I222:K222"/>
+    <mergeCell ref="I225:K225"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19745,91 +20483,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="105"/>
-      <c r="C3" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="C3" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139" t="s">
+      <c r="B4" s="140"/>
+      <c r="C4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="142" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="143" t="s">
+      <c r="I7" s="132" t="s">
         <v>115</v>
       </c>
     </row>
@@ -19876,7 +20614,7 @@
       <c r="G9" s="106"/>
       <c r="H9" s="106"/>
       <c r="I9" s="106" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -19897,7 +20635,7 @@
       <c r="G10" s="106"/>
       <c r="H10" s="106"/>
       <c r="I10" s="106" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="89" customHeight="1">
@@ -19919,7 +20657,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="106"/>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="133" t="s">
         <v>128</v>
       </c>
     </row>
@@ -19966,79 +20704,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="132" t="s">
         <v>115</v>
       </c>
     </row>
@@ -20070,10 +20808,10 @@
         <v>55</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
@@ -20085,7 +20823,7 @@
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="107" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -20112,7 +20850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280BA2D6-AF44-044E-A3B4-92A42EC1A50F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -20125,83 +20863,84 @@
     <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1"/>
     <col min="7" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="1"/>
+    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B2" s="105"/>
-      <c r="C2" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="143"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="132" t="s">
         <v>115</v>
       </c>
     </row>
@@ -20210,10 +20949,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>117</v>
@@ -20227,39 +20966,45 @@
       <c r="G7" s="106"/>
       <c r="H7" s="106"/>
       <c r="I7" s="106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63">
       <c r="A8" s="106" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
+        <v>148</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>117</v>
+      </c>
       <c r="F8" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="106"/>
+        <v>123</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" s="106"/>
-      <c r="I8" s="106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="147">
       <c r="A9" s="106" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D9" s="106"/>
       <c r="E9" s="106"/>
@@ -20270,40 +21015,40 @@
         <v>55</v>
       </c>
       <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-    </row>
-    <row r="10" spans="1:9" ht="63">
+      <c r="I9" s="107" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="106" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="G10" s="106" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="H10" s="106"/>
-      <c r="I10" s="107" t="s">
-        <v>149</v>
-      </c>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:9" ht="21">
       <c r="A11" s="106" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D11" s="106"/>
       <c r="E11" s="106"/>
@@ -20313,7 +21058,7 @@
       <c r="G11" s="106"/>
       <c r="H11" s="106"/>
       <c r="I11" s="107" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
